--- a/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/110_Test_Specifications/Unit_Test_Specification_Subfunction_Unit(screen)_WA10202_Project_Inquir.xlsx
+++ b/en/Sample_Project/Design_Document/A1_Project_Management_System/030_Application_Design/110_Test_Specifications/Unit_Test_Specification_Subfunction_Unit(screen)_WA10202_Project_Inquir.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0688044F-8CB7-4BB6-9C4B-0E997CE67B72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CEF7E0-F9F4-4533-BABA-4543465368C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="10575" windowWidth="38400" windowHeight="10575" tabRatio="575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.1. search of screen" sheetId="23" r:id="rId1"/>
@@ -25,14 +25,6 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'1.3. Subfunction unit'!$1:$10</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -1443,9 +1435,6 @@
     <t>Function name: Project management</t>
   </si>
   <si>
-    <t>Subfunction name: Project registration</t>
-  </si>
-  <si>
     <t>Test target name:</t>
   </si>
   <si>
@@ -2665,10 +2654,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>Creation date: 19/12/2019</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Kanazawa</t>
   </si>
   <si>
@@ -2964,6 +2949,14 @@
   <si>
     <t>The screen transition is possible as shown on the left.
 The contents from the project table are displayed on the update screen.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Subfunction name: Project inquery</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Creation date: 10/12/2019</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -10872,12 +10865,6 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="358" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -10903,6 +10890,12 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -11365,29 +11358,29 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="392" t="s">
-        <v>279</v>
+        <v>677</v>
       </c>
       <c r="I6" s="392" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J6" s="392" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="392" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I7" s="392" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J7" s="392" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="12.75" thickBot="1">
       <c r="A8" s="393" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B8" s="393"/>
       <c r="C8" s="393"/>
@@ -11412,55 +11405,55 @@
     </row>
     <row r="10" spans="1:19" s="594" customFormat="1">
       <c r="A10" s="394" t="s">
+        <v>281</v>
+      </c>
+      <c r="B10" s="395" t="s">
         <v>282</v>
       </c>
-      <c r="B10" s="395" t="s">
+      <c r="C10" s="395" t="s">
         <v>283</v>
       </c>
-      <c r="C10" s="395" t="s">
+      <c r="D10" s="395" t="s">
         <v>284</v>
       </c>
-      <c r="D10" s="395" t="s">
+      <c r="E10" s="396" t="s">
         <v>285</v>
       </c>
-      <c r="E10" s="396" t="s">
+      <c r="F10" s="52" t="s">
+        <v>295</v>
+      </c>
+      <c r="G10" s="53" t="s">
+        <v>296</v>
+      </c>
+      <c r="H10" s="397" t="s">
         <v>286</v>
       </c>
-      <c r="F10" s="52" t="s">
-        <v>296</v>
-      </c>
-      <c r="G10" s="53" t="s">
+      <c r="I10" s="395" t="s">
+        <v>287</v>
+      </c>
+      <c r="J10" s="398" t="s">
+        <v>288</v>
+      </c>
+      <c r="K10" s="398" t="s">
+        <v>289</v>
+      </c>
+      <c r="L10" s="398" t="s">
         <v>297</v>
       </c>
-      <c r="H10" s="397" t="s">
-        <v>287</v>
-      </c>
-      <c r="I10" s="395" t="s">
-        <v>288</v>
-      </c>
-      <c r="J10" s="398" t="s">
-        <v>289</v>
-      </c>
-      <c r="K10" s="398" t="s">
+      <c r="M10" s="398" t="s">
         <v>290</v>
       </c>
-      <c r="L10" s="398" t="s">
-        <v>298</v>
-      </c>
-      <c r="M10" s="398" t="s">
+      <c r="N10" s="398" t="s">
         <v>291</v>
       </c>
-      <c r="N10" s="398" t="s">
+      <c r="O10" s="398" t="s">
         <v>292</v>
       </c>
-      <c r="O10" s="398" t="s">
+      <c r="P10" s="398" t="s">
         <v>293</v>
       </c>
-      <c r="P10" s="398" t="s">
+      <c r="Q10" s="399" t="s">
         <v>294</v>
-      </c>
-      <c r="Q10" s="399" t="s">
-        <v>295</v>
       </c>
       <c r="R10" s="592"/>
       <c r="S10" s="593"/>
@@ -11470,41 +11463,41 @@
         <v>3</v>
       </c>
       <c r="B11" s="560" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C11" s="561" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D11" s="562"/>
       <c r="E11" s="563"/>
       <c r="F11" s="292"/>
       <c r="G11" s="293"/>
       <c r="H11" s="400" t="s">
+        <v>305</v>
+      </c>
+      <c r="I11" s="400" t="s">
         <v>306</v>
       </c>
-      <c r="I11" s="400" t="s">
-        <v>307</v>
-      </c>
       <c r="J11" s="595" t="s">
+        <v>446</v>
+      </c>
+      <c r="K11" s="595" t="s">
         <v>447</v>
-      </c>
-      <c r="K11" s="595" t="s">
-        <v>448</v>
       </c>
       <c r="L11" s="596"/>
       <c r="M11" s="597" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N11" s="598">
         <v>43817</v>
       </c>
       <c r="O11" s="599" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P11" s="597"/>
       <c r="Q11" s="600"/>
       <c r="R11" s="592" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S11" s="593" t="s">
         <v>209</v>
@@ -11523,25 +11516,25 @@
       <c r="H12" s="601"/>
       <c r="I12" s="601"/>
       <c r="J12" s="602" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K12" s="595" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L12" s="603"/>
       <c r="M12" s="604" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N12" s="605">
         <v>43817</v>
       </c>
       <c r="O12" s="599" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P12" s="606"/>
       <c r="Q12" s="607"/>
       <c r="R12" s="592" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S12" s="593" t="s">
         <v>210</v>
@@ -11560,25 +11553,25 @@
       <c r="H13" s="601"/>
       <c r="I13" s="601"/>
       <c r="J13" s="602" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K13" s="595" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L13" s="603"/>
       <c r="M13" s="604" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N13" s="605">
         <v>43817</v>
       </c>
       <c r="O13" s="599" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P13" s="597"/>
       <c r="Q13" s="608"/>
       <c r="R13" s="592" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S13" s="593" t="s">
         <v>211</v>
@@ -11597,25 +11590,25 @@
       <c r="H14" s="609"/>
       <c r="I14" s="602"/>
       <c r="J14" s="602" t="s">
+        <v>450</v>
+      </c>
+      <c r="K14" s="602" t="s">
         <v>451</v>
-      </c>
-      <c r="K14" s="602" t="s">
-        <v>452</v>
       </c>
       <c r="L14" s="603"/>
       <c r="M14" s="604" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N14" s="605">
         <v>43817</v>
       </c>
       <c r="O14" s="599" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P14" s="597"/>
       <c r="Q14" s="608"/>
       <c r="R14" s="592" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S14" s="593" t="s">
         <v>212</v>
@@ -11627,7 +11620,7 @@
       </c>
       <c r="B15" s="571"/>
       <c r="C15" s="401" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D15" s="402"/>
       <c r="E15" s="572"/>
@@ -11640,7 +11633,7 @@
         <v>26</v>
       </c>
       <c r="J15" s="405" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K15" s="610"/>
       <c r="L15" s="611"/>
@@ -11658,42 +11651,42 @@
       </c>
       <c r="B16" s="573"/>
       <c r="C16" s="574" t="s">
+        <v>309</v>
+      </c>
+      <c r="D16" s="575" t="s">
+        <v>443</v>
+      </c>
+      <c r="E16" s="412" t="s">
         <v>310</v>
-      </c>
-      <c r="D16" s="575" t="s">
-        <v>444</v>
-      </c>
-      <c r="E16" s="412" t="s">
-        <v>311</v>
       </c>
       <c r="F16" s="408"/>
       <c r="G16" s="409"/>
       <c r="H16" s="406" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I16" s="407" t="s">
+        <v>311</v>
+      </c>
+      <c r="J16" s="407" t="s">
         <v>312</v>
       </c>
-      <c r="J16" s="407" t="s">
+      <c r="K16" s="407" t="s">
         <v>313</v>
-      </c>
-      <c r="K16" s="407" t="s">
-        <v>314</v>
       </c>
       <c r="L16" s="619"/>
       <c r="M16" s="620" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N16" s="621">
         <v>43817</v>
       </c>
       <c r="O16" s="599" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P16" s="622"/>
       <c r="Q16" s="623"/>
       <c r="R16" s="592" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S16" s="593" t="s">
         <v>213</v>
@@ -11707,36 +11700,36 @@
       <c r="C17" s="576"/>
       <c r="D17" s="577"/>
       <c r="E17" s="410" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F17" s="408"/>
       <c r="G17" s="409"/>
       <c r="H17" s="406" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I17" s="407" t="s">
+        <v>315</v>
+      </c>
+      <c r="J17" s="411" t="s">
         <v>316</v>
       </c>
-      <c r="J17" s="411" t="s">
+      <c r="K17" s="411" t="s">
         <v>317</v>
-      </c>
-      <c r="K17" s="411" t="s">
-        <v>318</v>
       </c>
       <c r="L17" s="603"/>
       <c r="M17" s="624" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N17" s="625">
         <v>43817</v>
       </c>
       <c r="O17" s="599" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P17" s="626"/>
       <c r="Q17" s="623"/>
       <c r="R17" s="592" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S17" s="627" t="s">
         <v>210</v>
@@ -11750,36 +11743,36 @@
       <c r="C18" s="576"/>
       <c r="D18" s="577"/>
       <c r="E18" s="412" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F18" s="292"/>
       <c r="G18" s="293"/>
       <c r="H18" s="413" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I18" s="414" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J18" s="629" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K18" s="630" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L18" s="603"/>
       <c r="M18" s="624" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N18" s="625">
         <v>43817</v>
       </c>
       <c r="O18" s="599" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P18" s="631"/>
       <c r="Q18" s="623"/>
       <c r="R18" s="592" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S18" s="593" t="s">
         <v>214</v>
@@ -11798,25 +11791,25 @@
       <c r="H19" s="632"/>
       <c r="I19" s="633"/>
       <c r="J19" s="629" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K19" s="630" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L19" s="603"/>
       <c r="M19" s="624" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N19" s="625">
         <v>43817</v>
       </c>
       <c r="O19" s="599" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P19" s="634"/>
       <c r="Q19" s="635"/>
       <c r="R19" s="592" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S19" s="593" t="s">
         <v>215</v>
@@ -11835,25 +11828,25 @@
       <c r="H20" s="632"/>
       <c r="I20" s="633"/>
       <c r="J20" s="629" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K20" s="636" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L20" s="637"/>
       <c r="M20" s="624" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N20" s="625">
         <v>43817</v>
       </c>
       <c r="O20" s="599" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P20" s="638"/>
       <c r="Q20" s="639"/>
       <c r="R20" s="592" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S20" s="593" t="s">
         <v>216</v>
@@ -11872,25 +11865,25 @@
       <c r="H21" s="632"/>
       <c r="I21" s="633"/>
       <c r="J21" s="629" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K21" s="630" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L21" s="603"/>
       <c r="M21" s="624" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N21" s="625">
         <v>43817</v>
       </c>
       <c r="O21" s="599" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P21" s="638"/>
       <c r="Q21" s="639"/>
       <c r="R21" s="592" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S21" s="593" t="s">
         <v>214</v>
@@ -11909,25 +11902,25 @@
       <c r="H22" s="632"/>
       <c r="I22" s="633"/>
       <c r="J22" s="629" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K22" s="630" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L22" s="603"/>
       <c r="M22" s="624" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N22" s="625">
         <v>43817</v>
       </c>
       <c r="O22" s="599" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P22" s="638"/>
       <c r="Q22" s="639"/>
       <c r="R22" s="592" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S22" s="593" t="s">
         <v>215</v>
@@ -11946,25 +11939,25 @@
       <c r="H23" s="632"/>
       <c r="I23" s="633"/>
       <c r="J23" s="629" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K23" s="636" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L23" s="637"/>
       <c r="M23" s="624" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N23" s="625">
         <v>43817</v>
       </c>
       <c r="O23" s="599" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P23" s="638"/>
       <c r="Q23" s="639"/>
       <c r="R23" s="592" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S23" s="593" t="s">
         <v>216</v>
@@ -11983,25 +11976,25 @@
       <c r="H24" s="632"/>
       <c r="I24" s="633"/>
       <c r="J24" s="629" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K24" s="630" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L24" s="603"/>
       <c r="M24" s="624" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N24" s="625">
         <v>43817</v>
       </c>
       <c r="O24" s="599" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P24" s="638"/>
       <c r="Q24" s="639"/>
       <c r="R24" s="592" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S24" s="593" t="s">
         <v>214</v>
@@ -12020,25 +12013,25 @@
       <c r="H25" s="632"/>
       <c r="I25" s="633"/>
       <c r="J25" s="629" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K25" s="630" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L25" s="603"/>
       <c r="M25" s="624" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N25" s="625">
         <v>43817</v>
       </c>
       <c r="O25" s="599" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P25" s="638"/>
       <c r="Q25" s="639"/>
       <c r="R25" s="592" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S25" s="593" t="s">
         <v>215</v>
@@ -12057,25 +12050,25 @@
       <c r="H26" s="640"/>
       <c r="I26" s="630"/>
       <c r="J26" s="629" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K26" s="636" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L26" s="641"/>
       <c r="M26" s="624" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N26" s="625">
         <v>43817</v>
       </c>
       <c r="O26" s="599" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P26" s="634"/>
       <c r="Q26" s="635"/>
       <c r="R26" s="592" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S26" s="593" t="s">
         <v>216</v>
@@ -12089,18 +12082,18 @@
       <c r="C27" s="582"/>
       <c r="D27" s="583"/>
       <c r="E27" s="415" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F27" s="331"/>
       <c r="G27" s="332"/>
       <c r="H27" s="416" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I27" s="417" t="s">
+        <v>321</v>
+      </c>
+      <c r="J27" s="417" t="s">
         <v>322</v>
-      </c>
-      <c r="J27" s="417" t="s">
-        <v>323</v>
       </c>
       <c r="K27" s="642"/>
       <c r="L27" s="643"/>
@@ -12119,37 +12112,37 @@
       <c r="B28" s="560"/>
       <c r="C28" s="585"/>
       <c r="D28" s="418" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E28" s="586"/>
       <c r="F28" s="302"/>
       <c r="G28" s="303"/>
       <c r="H28" s="400" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I28" s="649" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J28" s="650" t="s">
+        <v>463</v>
+      </c>
+      <c r="K28" s="650" t="s">
         <v>464</v>
-      </c>
-      <c r="K28" s="650" t="s">
-        <v>465</v>
       </c>
       <c r="L28" s="603"/>
       <c r="M28" s="624" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N28" s="625">
         <v>43817</v>
       </c>
       <c r="O28" s="599" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P28" s="606"/>
       <c r="Q28" s="651"/>
       <c r="R28" s="592" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S28" s="593" t="s">
         <v>217</v>
@@ -12168,10 +12161,10 @@
       <c r="H29" s="652"/>
       <c r="I29" s="652"/>
       <c r="J29" s="653" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K29" s="653" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L29" s="654"/>
       <c r="M29" s="655"/>
@@ -12189,19 +12182,19 @@
       <c r="B30" s="571"/>
       <c r="C30" s="583"/>
       <c r="D30" s="436" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E30" s="437"/>
       <c r="F30" s="432"/>
       <c r="G30" s="433"/>
       <c r="H30" s="434" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I30" s="435" t="s">
+        <v>325</v>
+      </c>
+      <c r="J30" s="435" t="s">
         <v>326</v>
-      </c>
-      <c r="J30" s="435" t="s">
-        <v>327</v>
       </c>
       <c r="K30" s="660"/>
       <c r="L30" s="654"/>
@@ -12346,21 +12339,21 @@
       <c r="B35" s="571"/>
       <c r="C35" s="583"/>
       <c r="D35" s="438" t="s">
+        <v>327</v>
+      </c>
+      <c r="E35" s="439" t="s">
         <v>328</v>
-      </c>
-      <c r="E35" s="439" t="s">
-        <v>329</v>
       </c>
       <c r="F35" s="432"/>
       <c r="G35" s="433"/>
       <c r="H35" s="434" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I35" s="440" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J35" s="440" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K35" s="610"/>
       <c r="L35" s="669"/>
@@ -12380,18 +12373,18 @@
       <c r="C36" s="588"/>
       <c r="D36" s="419"/>
       <c r="E36" s="441" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F36" s="442"/>
       <c r="G36" s="443"/>
       <c r="H36" s="444" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I36" s="445" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J36" s="445" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K36" s="610"/>
       <c r="L36" s="669"/>
@@ -12411,18 +12404,18 @@
       <c r="C37" s="588"/>
       <c r="D37" s="419"/>
       <c r="E37" s="446" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F37" s="447"/>
       <c r="G37" s="448"/>
       <c r="H37" s="449" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I37" s="450" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J37" s="450" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K37" s="610"/>
       <c r="L37" s="669"/>
@@ -12442,18 +12435,18 @@
       <c r="C38" s="588"/>
       <c r="D38" s="419"/>
       <c r="E38" s="451" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F38" s="452"/>
       <c r="G38" s="453"/>
       <c r="H38" s="454" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I38" s="455" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J38" s="455" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K38" s="610"/>
       <c r="L38" s="669"/>
@@ -12473,18 +12466,18 @@
       <c r="C39" s="588"/>
       <c r="D39" s="423"/>
       <c r="E39" s="456" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F39" s="457"/>
       <c r="G39" s="458"/>
       <c r="H39" s="459" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I39" s="460" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J39" s="460" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K39" s="610"/>
       <c r="L39" s="669"/>
@@ -12504,18 +12497,18 @@
       <c r="C40" s="583"/>
       <c r="D40" s="423"/>
       <c r="E40" s="461" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F40" s="462"/>
       <c r="G40" s="463"/>
       <c r="H40" s="464" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I40" s="465" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J40" s="465" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K40" s="610"/>
       <c r="L40" s="669"/>
@@ -12535,18 +12528,18 @@
       <c r="C41" s="583"/>
       <c r="D41" s="429"/>
       <c r="E41" s="429" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F41" s="466"/>
       <c r="G41" s="467"/>
       <c r="H41" s="468" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I41" s="469" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J41" s="470" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K41" s="673"/>
       <c r="L41" s="674"/>
@@ -12565,21 +12558,21 @@
       <c r="B42" s="571"/>
       <c r="C42" s="583"/>
       <c r="D42" s="423" t="s">
+        <v>336</v>
+      </c>
+      <c r="E42" s="429" t="s">
         <v>337</v>
-      </c>
-      <c r="E42" s="429" t="s">
-        <v>338</v>
       </c>
       <c r="F42" s="471"/>
       <c r="G42" s="472"/>
       <c r="H42" s="473" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I42" s="474" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J42" s="475" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K42" s="673"/>
       <c r="L42" s="674"/>
@@ -12598,21 +12591,21 @@
       <c r="B43" s="581"/>
       <c r="C43" s="582"/>
       <c r="D43" s="476" t="s">
+        <v>339</v>
+      </c>
+      <c r="E43" s="477" t="s">
         <v>340</v>
-      </c>
-      <c r="E43" s="477" t="s">
-        <v>341</v>
       </c>
       <c r="F43" s="478"/>
       <c r="G43" s="479"/>
       <c r="H43" s="480" t="s">
+        <v>341</v>
+      </c>
+      <c r="I43" s="481" t="s">
         <v>342</v>
       </c>
-      <c r="I43" s="481" t="s">
+      <c r="J43" s="481" t="s">
         <v>343</v>
-      </c>
-      <c r="J43" s="481" t="s">
-        <v>344</v>
       </c>
       <c r="K43" s="678"/>
       <c r="L43" s="679"/>
@@ -12632,18 +12625,18 @@
       <c r="C44" s="582"/>
       <c r="D44" s="482"/>
       <c r="E44" s="477" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F44" s="478"/>
       <c r="G44" s="479"/>
       <c r="H44" s="483" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I44" s="481" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J44" s="481" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K44" s="678"/>
       <c r="L44" s="679"/>
@@ -12663,18 +12656,18 @@
       <c r="C45" s="582"/>
       <c r="D45" s="482"/>
       <c r="E45" s="477" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F45" s="478"/>
       <c r="G45" s="479"/>
       <c r="H45" s="483" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I45" s="481" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J45" s="481" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K45" s="678"/>
       <c r="L45" s="679"/>
@@ -12694,18 +12687,18 @@
       <c r="C46" s="582"/>
       <c r="D46" s="482"/>
       <c r="E46" s="477" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F46" s="478"/>
       <c r="G46" s="479"/>
       <c r="H46" s="483" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I46" s="481" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J46" s="481" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K46" s="678"/>
       <c r="L46" s="679"/>
@@ -12725,18 +12718,18 @@
       <c r="C47" s="582"/>
       <c r="D47" s="482"/>
       <c r="E47" s="477" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F47" s="478"/>
       <c r="G47" s="479"/>
       <c r="H47" s="483" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I47" s="481" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J47" s="481" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K47" s="678"/>
       <c r="L47" s="684"/>
@@ -12756,18 +12749,18 @@
       <c r="C48" s="582"/>
       <c r="D48" s="482"/>
       <c r="E48" s="477" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F48" s="478"/>
       <c r="G48" s="479"/>
       <c r="H48" s="483" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I48" s="481" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J48" s="481" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K48" s="678"/>
       <c r="L48" s="684"/>
@@ -12787,18 +12780,18 @@
       <c r="C49" s="582"/>
       <c r="D49" s="482"/>
       <c r="E49" s="477" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F49" s="478"/>
       <c r="G49" s="479"/>
       <c r="H49" s="483" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I49" s="481" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J49" s="481" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K49" s="678"/>
       <c r="L49" s="684"/>
@@ -12818,18 +12811,18 @@
       <c r="C50" s="582"/>
       <c r="D50" s="482"/>
       <c r="E50" s="477" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F50" s="478"/>
       <c r="G50" s="479"/>
       <c r="H50" s="483" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I50" s="481" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J50" s="481" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K50" s="678"/>
       <c r="L50" s="684"/>
@@ -12849,18 +12842,18 @@
       <c r="C51" s="582"/>
       <c r="D51" s="484"/>
       <c r="E51" s="477" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F51" s="478"/>
       <c r="G51" s="479"/>
       <c r="H51" s="483" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I51" s="481" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J51" s="481" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K51" s="678"/>
       <c r="L51" s="684"/>
@@ -12879,21 +12872,21 @@
       <c r="B52" s="581"/>
       <c r="C52" s="582"/>
       <c r="D52" s="485" t="s">
+        <v>356</v>
+      </c>
+      <c r="E52" s="486" t="s">
         <v>357</v>
-      </c>
-      <c r="E52" s="486" t="s">
-        <v>358</v>
       </c>
       <c r="F52" s="471"/>
       <c r="G52" s="472"/>
       <c r="H52" s="487" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I52" s="488" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J52" s="488" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K52" s="678"/>
       <c r="L52" s="684"/>
@@ -12913,18 +12906,18 @@
       <c r="C53" s="582"/>
       <c r="D53" s="482"/>
       <c r="E53" s="486" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F53" s="471"/>
       <c r="G53" s="472"/>
       <c r="H53" s="487" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I53" s="488" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J53" s="488" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K53" s="678"/>
       <c r="L53" s="684"/>
@@ -12944,18 +12937,18 @@
       <c r="C54" s="582"/>
       <c r="D54" s="482"/>
       <c r="E54" s="486" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F54" s="471"/>
       <c r="G54" s="472"/>
       <c r="H54" s="487" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I54" s="488" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J54" s="488" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K54" s="678"/>
       <c r="L54" s="684"/>
@@ -12975,18 +12968,18 @@
       <c r="C55" s="582"/>
       <c r="D55" s="482"/>
       <c r="E55" s="486" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F55" s="471"/>
       <c r="G55" s="472"/>
       <c r="H55" s="487" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I55" s="488" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J55" s="488" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K55" s="678"/>
       <c r="L55" s="684"/>
@@ -13006,18 +12999,18 @@
       <c r="C56" s="582"/>
       <c r="D56" s="482"/>
       <c r="E56" s="489" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F56" s="471"/>
       <c r="G56" s="472"/>
       <c r="H56" s="490" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I56" s="491" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J56" s="488" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K56" s="687"/>
       <c r="L56" s="688"/>
@@ -13035,22 +13028,22 @@
       </c>
       <c r="B57" s="582"/>
       <c r="C57" s="492" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D57" s="493"/>
       <c r="E57" s="493" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F57" s="466"/>
       <c r="G57" s="467"/>
       <c r="H57" s="494" t="s">
+        <v>363</v>
+      </c>
+      <c r="I57" s="495" t="s">
         <v>364</v>
       </c>
-      <c r="I57" s="495" t="s">
+      <c r="J57" s="496" t="s">
         <v>365</v>
-      </c>
-      <c r="J57" s="496" t="s">
-        <v>366</v>
       </c>
       <c r="K57" s="690"/>
       <c r="L57" s="691"/>
@@ -13070,18 +13063,18 @@
       <c r="C58" s="497"/>
       <c r="D58" s="482"/>
       <c r="E58" s="498" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F58" s="462"/>
       <c r="G58" s="463"/>
       <c r="H58" s="499" t="s">
+        <v>363</v>
+      </c>
+      <c r="I58" s="500" t="s">
         <v>364</v>
       </c>
-      <c r="I58" s="500" t="s">
+      <c r="J58" s="501" t="s">
         <v>365</v>
-      </c>
-      <c r="J58" s="501" t="s">
-        <v>366</v>
       </c>
       <c r="K58" s="694"/>
       <c r="L58" s="695"/>
@@ -13101,18 +13094,18 @@
       <c r="C59" s="497"/>
       <c r="D59" s="482"/>
       <c r="E59" s="502" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F59" s="457"/>
       <c r="G59" s="458"/>
       <c r="H59" s="503" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I59" s="504" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J59" s="505" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K59" s="698"/>
       <c r="L59" s="699"/>
@@ -13132,18 +13125,18 @@
       <c r="C60" s="497"/>
       <c r="D60" s="482"/>
       <c r="E60" s="506" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F60" s="452"/>
       <c r="G60" s="453"/>
       <c r="H60" s="507" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I60" s="508" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J60" s="509" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K60" s="702"/>
       <c r="L60" s="703"/>
@@ -13163,18 +13156,18 @@
       <c r="C61" s="497"/>
       <c r="D61" s="482"/>
       <c r="E61" s="510" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F61" s="447"/>
       <c r="G61" s="448"/>
       <c r="H61" s="511" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I61" s="512" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J61" s="513" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K61" s="706"/>
       <c r="L61" s="707"/>
@@ -13194,18 +13187,18 @@
       <c r="C62" s="497"/>
       <c r="D62" s="482"/>
       <c r="E62" s="514" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F62" s="442"/>
       <c r="G62" s="443"/>
       <c r="H62" s="515" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I62" s="516" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J62" s="517" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K62" s="710"/>
       <c r="L62" s="711"/>
@@ -13225,18 +13218,18 @@
       <c r="C63" s="497"/>
       <c r="D63" s="482"/>
       <c r="E63" s="518" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F63" s="432"/>
       <c r="G63" s="433"/>
       <c r="H63" s="519" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I63" s="520" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J63" s="521" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K63" s="714"/>
       <c r="L63" s="715"/>
@@ -13256,18 +13249,18 @@
       <c r="C64" s="497"/>
       <c r="D64" s="482"/>
       <c r="E64" s="522" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F64" s="430"/>
       <c r="G64" s="431"/>
       <c r="H64" s="523" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I64" s="524" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J64" s="525" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K64" s="718"/>
       <c r="L64" s="719"/>
@@ -13287,18 +13280,18 @@
       <c r="C65" s="526"/>
       <c r="D65" s="482"/>
       <c r="E65" s="527" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F65" s="427"/>
       <c r="G65" s="428"/>
       <c r="H65" s="528" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I65" s="529" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J65" s="530" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K65" s="722"/>
       <c r="L65" s="723"/>
@@ -13315,45 +13308,45 @@
         <v>17</v>
       </c>
       <c r="B66" s="531" t="s">
+        <v>374</v>
+      </c>
+      <c r="C66" s="531" t="s">
         <v>375</v>
       </c>
-      <c r="C66" s="531" t="s">
+      <c r="D66" s="532" t="s">
         <v>376</v>
       </c>
-      <c r="D66" s="532" t="s">
+      <c r="E66" s="533" t="s">
         <v>377</v>
-      </c>
-      <c r="E66" s="533" t="s">
-        <v>378</v>
       </c>
       <c r="F66" s="290"/>
       <c r="G66" s="291"/>
       <c r="H66" s="534" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I66" s="531" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J66" s="726" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K66" s="727" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L66" s="728"/>
       <c r="M66" s="624" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N66" s="625">
         <v>43817</v>
       </c>
       <c r="O66" s="599" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P66" s="604"/>
       <c r="Q66" s="729"/>
       <c r="R66" s="592" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S66" s="593" t="s">
         <v>218</v>
@@ -13372,25 +13365,25 @@
       <c r="H67" s="577"/>
       <c r="I67" s="577"/>
       <c r="J67" s="730" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K67" s="727" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L67" s="603"/>
       <c r="M67" s="624" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N67" s="625">
         <v>43817</v>
       </c>
       <c r="O67" s="599" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P67" s="604"/>
       <c r="Q67" s="731"/>
       <c r="R67" s="592" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S67" s="593" t="s">
         <v>219</v>
@@ -13404,36 +13397,36 @@
       <c r="C68" s="577"/>
       <c r="D68" s="577"/>
       <c r="E68" s="533" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F68" s="61"/>
       <c r="G68" s="62"/>
       <c r="H68" s="534" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I68" s="553" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J68" s="726" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K68" s="727" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L68" s="603"/>
       <c r="M68" s="624" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N68" s="625">
         <v>43817</v>
       </c>
       <c r="O68" s="599" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P68" s="606"/>
       <c r="Q68" s="729"/>
       <c r="R68" s="592" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S68" s="593" t="s">
         <v>218</v>
@@ -13447,36 +13440,36 @@
       <c r="C69" s="577"/>
       <c r="D69" s="577"/>
       <c r="E69" s="533" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F69" s="61"/>
       <c r="G69" s="62"/>
       <c r="H69" s="534" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I69" s="555" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J69" s="726" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K69" s="727" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L69" s="603"/>
       <c r="M69" s="624" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N69" s="625">
         <v>43817</v>
       </c>
       <c r="O69" s="599" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P69" s="606"/>
       <c r="Q69" s="729"/>
       <c r="R69" s="592" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S69" s="593" t="s">
         <v>218</v>
@@ -13490,36 +13483,36 @@
       <c r="C70" s="577"/>
       <c r="D70" s="577"/>
       <c r="E70" s="553" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F70" s="61"/>
       <c r="G70" s="62"/>
       <c r="H70" s="534" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I70" s="531" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J70" s="726" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K70" s="727" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L70" s="603"/>
       <c r="M70" s="624" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N70" s="625">
         <v>43817</v>
       </c>
       <c r="O70" s="599" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P70" s="606"/>
       <c r="Q70" s="729"/>
       <c r="R70" s="592" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S70" s="593" t="s">
         <v>218</v>
@@ -13538,25 +13531,25 @@
       <c r="H71" s="577"/>
       <c r="I71" s="577"/>
       <c r="J71" s="730" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K71" s="727" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L71" s="603"/>
       <c r="M71" s="624" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N71" s="625">
         <v>43817</v>
       </c>
       <c r="O71" s="599" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P71" s="597"/>
       <c r="Q71" s="731"/>
       <c r="R71" s="592" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S71" s="593" t="s">
         <v>219</v>
@@ -13570,36 +13563,36 @@
       <c r="C72" s="577"/>
       <c r="D72" s="667"/>
       <c r="E72" s="533" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F72" s="61"/>
       <c r="G72" s="62"/>
       <c r="H72" s="534" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I72" s="531" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J72" s="726" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K72" s="727" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="L72" s="603"/>
       <c r="M72" s="624" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N72" s="625">
         <v>43817</v>
       </c>
       <c r="O72" s="599" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P72" s="606"/>
       <c r="Q72" s="729"/>
       <c r="R72" s="592" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S72" s="593" t="s">
         <v>218</v>
@@ -13612,21 +13605,21 @@
       <c r="B73" s="583"/>
       <c r="C73" s="583"/>
       <c r="D73" s="535" t="s">
+        <v>384</v>
+      </c>
+      <c r="E73" s="536" t="s">
         <v>385</v>
-      </c>
-      <c r="E73" s="536" t="s">
-        <v>386</v>
       </c>
       <c r="F73" s="424"/>
       <c r="G73" s="425"/>
       <c r="H73" s="537" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I73" s="537" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J73" s="538" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K73" s="732"/>
       <c r="L73" s="654"/>
@@ -13646,18 +13639,18 @@
       <c r="C74" s="583"/>
       <c r="D74" s="423"/>
       <c r="E74" s="538" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F74" s="424"/>
       <c r="G74" s="425"/>
       <c r="H74" s="537" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I74" s="537" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J74" s="538" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K74" s="732"/>
       <c r="L74" s="654"/>
@@ -13677,18 +13670,18 @@
       <c r="C75" s="583"/>
       <c r="D75" s="429"/>
       <c r="E75" s="538" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F75" s="424"/>
       <c r="G75" s="425"/>
       <c r="H75" s="537" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I75" s="537" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J75" s="538" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K75" s="732"/>
       <c r="L75" s="654"/>
@@ -13707,39 +13700,39 @@
       <c r="B76" s="577"/>
       <c r="C76" s="577"/>
       <c r="D76" s="539" t="s">
+        <v>389</v>
+      </c>
+      <c r="E76" s="540" t="s">
         <v>390</v>
-      </c>
-      <c r="E76" s="540" t="s">
-        <v>391</v>
       </c>
       <c r="F76" s="290"/>
       <c r="G76" s="291"/>
       <c r="H76" s="541" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I76" s="541" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J76" s="556" t="s">
+        <v>470</v>
+      </c>
+      <c r="K76" s="556" t="s">
         <v>471</v>
-      </c>
-      <c r="K76" s="556" t="s">
-        <v>472</v>
       </c>
       <c r="L76" s="603"/>
       <c r="M76" s="624" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N76" s="625">
         <v>43817</v>
       </c>
       <c r="O76" s="599" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P76" s="606"/>
       <c r="Q76" s="734"/>
       <c r="R76" s="592" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S76" s="593" t="s">
         <v>220</v>
@@ -13758,25 +13751,25 @@
       <c r="H77" s="577"/>
       <c r="I77" s="577"/>
       <c r="J77" s="735" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K77" s="556" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L77" s="603"/>
       <c r="M77" s="624" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N77" s="625">
         <v>43817</v>
       </c>
       <c r="O77" s="599" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P77" s="606"/>
       <c r="Q77" s="731"/>
       <c r="R77" s="592" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S77" s="593" t="s">
         <v>221</v>
@@ -13790,36 +13783,36 @@
       <c r="C78" s="577"/>
       <c r="D78" s="577"/>
       <c r="E78" s="540" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F78" s="290"/>
       <c r="G78" s="291"/>
       <c r="H78" s="541" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I78" s="541" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J78" s="735" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K78" s="735" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L78" s="603"/>
       <c r="M78" s="624" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N78" s="625">
         <v>43817</v>
       </c>
       <c r="O78" s="599" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P78" s="606"/>
       <c r="Q78" s="734"/>
       <c r="R78" s="592" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S78" s="593" t="s">
         <v>220</v>
@@ -13838,25 +13831,25 @@
       <c r="H79" s="577"/>
       <c r="I79" s="577"/>
       <c r="J79" s="735" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K79" s="735" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="L79" s="603"/>
       <c r="M79" s="624" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N79" s="625">
         <v>43817</v>
       </c>
       <c r="O79" s="599" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P79" s="606"/>
       <c r="Q79" s="731"/>
       <c r="R79" s="592" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S79" s="593" t="s">
         <v>221</v>
@@ -13869,39 +13862,39 @@
       <c r="B80" s="577"/>
       <c r="C80" s="577"/>
       <c r="D80" s="539" t="s">
+        <v>392</v>
+      </c>
+      <c r="E80" s="540" t="s">
         <v>393</v>
-      </c>
-      <c r="E80" s="540" t="s">
-        <v>394</v>
       </c>
       <c r="F80" s="290"/>
       <c r="G80" s="291"/>
       <c r="H80" s="541" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I80" s="736" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J80" s="735" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="K80" s="735" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="L80" s="603"/>
       <c r="M80" s="624" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N80" s="625">
         <v>43818</v>
       </c>
       <c r="O80" s="599" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P80" s="606"/>
       <c r="Q80" s="734"/>
       <c r="R80" s="592" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S80" s="593" t="s">
         <v>222</v>
@@ -13915,36 +13908,36 @@
       <c r="C81" s="577"/>
       <c r="D81" s="577"/>
       <c r="E81" s="540" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F81" s="290"/>
       <c r="G81" s="291"/>
       <c r="H81" s="541" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I81" s="736" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J81" s="735" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K81" s="735" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="L81" s="603"/>
       <c r="M81" s="624" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N81" s="625">
         <v>43818</v>
       </c>
       <c r="O81" s="599" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P81" s="606"/>
       <c r="Q81" s="734"/>
       <c r="R81" s="592" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S81" s="593" t="s">
         <v>223</v>
@@ -13958,36 +13951,36 @@
       <c r="C82" s="577"/>
       <c r="D82" s="577"/>
       <c r="E82" s="542" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F82" s="290"/>
       <c r="G82" s="291"/>
       <c r="H82" s="541" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I82" s="736" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J82" s="735" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K82" s="735" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="L82" s="603"/>
       <c r="M82" s="624" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N82" s="625">
         <v>43818</v>
       </c>
       <c r="O82" s="599" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P82" s="606"/>
       <c r="Q82" s="734"/>
       <c r="R82" s="592" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S82" s="593" t="s">
         <v>222</v>
@@ -14032,36 +14025,36 @@
       <c r="C84" s="577"/>
       <c r="D84" s="577"/>
       <c r="E84" s="542" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F84" s="290"/>
       <c r="G84" s="291"/>
       <c r="H84" s="541" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I84" s="736" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J84" s="735" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K84" s="735" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="L84" s="603"/>
       <c r="M84" s="624" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N84" s="625">
         <v>43818</v>
       </c>
       <c r="O84" s="599" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P84" s="606"/>
       <c r="Q84" s="734"/>
       <c r="R84" s="592" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S84" s="593" t="s">
         <v>224</v>
@@ -14075,36 +14068,36 @@
       <c r="C85" s="577"/>
       <c r="D85" s="577"/>
       <c r="E85" s="542" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F85" s="290"/>
       <c r="G85" s="291"/>
       <c r="H85" s="541" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I85" s="736" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J85" s="735" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K85" s="735" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="L85" s="603"/>
       <c r="M85" s="624" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N85" s="625">
         <v>43818</v>
       </c>
       <c r="O85" s="599" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P85" s="606"/>
       <c r="Q85" s="734"/>
       <c r="R85" s="592" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S85" s="593" t="s">
         <v>225</v>
@@ -14118,18 +14111,18 @@
       <c r="C86" s="583"/>
       <c r="D86" s="583"/>
       <c r="E86" s="538" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F86" s="290"/>
       <c r="G86" s="291"/>
       <c r="H86" s="743" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I86" s="743" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J86" s="732" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K86" s="732"/>
       <c r="L86" s="654"/>
@@ -14149,18 +14142,18 @@
       <c r="C87" s="583"/>
       <c r="D87" s="429"/>
       <c r="E87" s="538" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F87" s="290"/>
       <c r="G87" s="291"/>
       <c r="H87" s="743" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I87" s="743" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J87" s="732" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K87" s="732"/>
       <c r="L87" s="654"/>
@@ -14179,39 +14172,39 @@
       <c r="B88" s="577"/>
       <c r="C88" s="577"/>
       <c r="D88" s="543" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E88" s="542" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F88" s="290"/>
       <c r="G88" s="291"/>
       <c r="H88" s="541" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I88" s="744" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J88" s="735" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K88" s="595" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L88" s="603"/>
       <c r="M88" s="624" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N88" s="625">
         <v>43818</v>
       </c>
       <c r="O88" s="599" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P88" s="606"/>
       <c r="Q88" s="734"/>
       <c r="R88" s="592" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S88" s="593" t="s">
         <v>225</v>
@@ -14224,39 +14217,39 @@
       <c r="B89" s="577"/>
       <c r="C89" s="577"/>
       <c r="D89" s="737" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E89" s="540" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F89" s="290"/>
       <c r="G89" s="291"/>
       <c r="H89" s="541" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I89" s="737" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J89" s="735" t="s">
+        <v>488</v>
+      </c>
+      <c r="K89" s="735" t="s">
         <v>489</v>
-      </c>
-      <c r="K89" s="735" t="s">
-        <v>490</v>
       </c>
       <c r="L89" s="603"/>
       <c r="M89" s="624" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N89" s="625">
         <v>43818</v>
       </c>
       <c r="O89" s="599" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P89" s="606"/>
       <c r="Q89" s="734"/>
       <c r="R89" s="592" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S89" s="593" t="s">
         <v>215</v>
@@ -14270,36 +14263,36 @@
       <c r="C90" s="577"/>
       <c r="D90" s="577"/>
       <c r="E90" s="540" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F90" s="290"/>
       <c r="G90" s="291"/>
       <c r="H90" s="541" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I90" s="737" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J90" s="735" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K90" s="595" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L90" s="603"/>
       <c r="M90" s="624" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N90" s="625">
         <v>43818</v>
       </c>
       <c r="O90" s="599" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P90" s="606"/>
       <c r="Q90" s="734"/>
       <c r="R90" s="592" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S90" s="593" t="s">
         <v>215</v>
@@ -14313,18 +14306,18 @@
       <c r="C91" s="583"/>
       <c r="D91" s="429"/>
       <c r="E91" s="732" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F91" s="353"/>
       <c r="G91" s="354"/>
       <c r="H91" s="743" t="s">
+        <v>404</v>
+      </c>
+      <c r="I91" s="745" t="s">
         <v>405</v>
       </c>
-      <c r="I91" s="745" t="s">
-        <v>406</v>
-      </c>
       <c r="J91" s="732" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K91" s="732"/>
       <c r="L91" s="654"/>
@@ -14343,39 +14336,39 @@
       <c r="B92" s="577"/>
       <c r="C92" s="577"/>
       <c r="D92" s="737" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E92" s="540" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F92" s="290"/>
       <c r="G92" s="291"/>
       <c r="H92" s="541" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I92" s="737" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J92" s="746" t="s">
+        <v>492</v>
+      </c>
+      <c r="K92" s="735" t="s">
         <v>493</v>
-      </c>
-      <c r="K92" s="735" t="s">
-        <v>494</v>
       </c>
       <c r="L92" s="603"/>
       <c r="M92" s="624" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N92" s="625">
         <v>43818</v>
       </c>
       <c r="O92" s="599" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P92" s="606"/>
       <c r="Q92" s="734"/>
       <c r="R92" s="592" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S92" s="593" t="s">
         <v>213</v>
@@ -14389,36 +14382,36 @@
       <c r="C93" s="577"/>
       <c r="D93" s="577"/>
       <c r="E93" s="540" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F93" s="290"/>
       <c r="G93" s="291"/>
       <c r="H93" s="541" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I93" s="737" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J93" s="746" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K93" s="735" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L93" s="603"/>
       <c r="M93" s="624" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N93" s="625">
         <v>43818</v>
       </c>
       <c r="O93" s="599" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P93" s="606"/>
       <c r="Q93" s="734"/>
       <c r="R93" s="592" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S93" s="593" t="s">
         <v>213</v>
@@ -14432,18 +14425,18 @@
       <c r="C94" s="583"/>
       <c r="D94" s="429"/>
       <c r="E94" s="738" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F94" s="353"/>
       <c r="G94" s="354"/>
       <c r="H94" s="743" t="s">
+        <v>404</v>
+      </c>
+      <c r="I94" s="745" t="s">
         <v>405</v>
       </c>
-      <c r="I94" s="745" t="s">
-        <v>406</v>
-      </c>
       <c r="J94" s="732" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K94" s="732"/>
       <c r="L94" s="654"/>
@@ -14462,37 +14455,37 @@
       <c r="B95" s="577"/>
       <c r="C95" s="577"/>
       <c r="D95" s="739" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E95" s="740"/>
       <c r="F95" s="298"/>
       <c r="G95" s="299"/>
       <c r="H95" s="541" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I95" s="747" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J95" s="726" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K95" s="735" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L95" s="603"/>
       <c r="M95" s="624" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N95" s="625">
         <v>43818</v>
       </c>
       <c r="O95" s="599" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P95" s="606"/>
       <c r="Q95" s="734"/>
       <c r="R95" s="592" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S95" s="593" t="s">
         <v>218</v>
@@ -14511,25 +14504,25 @@
       <c r="H96" s="543"/>
       <c r="I96" s="748"/>
       <c r="J96" s="730" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K96" s="735" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L96" s="603"/>
       <c r="M96" s="624" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N96" s="625">
         <v>43818</v>
       </c>
       <c r="O96" s="599" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P96" s="606"/>
       <c r="Q96" s="731"/>
       <c r="R96" s="592" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S96" s="593" t="s">
         <v>219</v>
@@ -14572,40 +14565,40 @@
       </c>
       <c r="B98" s="577"/>
       <c r="C98" s="737" t="s">
+        <v>418</v>
+      </c>
+      <c r="D98" s="544" t="s">
         <v>419</v>
-      </c>
-      <c r="D98" s="544" t="s">
-        <v>420</v>
       </c>
       <c r="E98" s="545"/>
       <c r="F98" s="320"/>
       <c r="G98" s="321"/>
       <c r="H98" s="737" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I98" s="737" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J98" s="730" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K98" s="735" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L98" s="603"/>
       <c r="M98" s="624" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N98" s="625">
         <v>43818</v>
       </c>
       <c r="O98" s="599" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P98" s="750"/>
       <c r="Q98" s="751"/>
       <c r="R98" s="592" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S98" s="593" t="s">
         <v>219</v>
@@ -14618,39 +14611,39 @@
       <c r="B99" s="577"/>
       <c r="C99" s="577"/>
       <c r="D99" s="546" t="s">
+        <v>420</v>
+      </c>
+      <c r="E99" s="547" t="s">
         <v>421</v>
-      </c>
-      <c r="E99" s="547" t="s">
-        <v>422</v>
       </c>
       <c r="F99" s="320"/>
       <c r="G99" s="321"/>
       <c r="H99" s="737" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I99" s="737" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J99" s="726" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K99" s="735" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="L99" s="752"/>
       <c r="M99" s="624" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N99" s="625">
         <v>43818</v>
       </c>
       <c r="O99" s="599" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P99" s="750"/>
       <c r="Q99" s="751"/>
       <c r="R99" s="592" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S99" s="593" t="s">
         <v>218</v>
@@ -14664,18 +14657,18 @@
       <c r="C100" s="583"/>
       <c r="D100" s="548"/>
       <c r="E100" s="549" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F100" s="320"/>
       <c r="G100" s="321"/>
       <c r="H100" s="745" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I100" s="745" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J100" s="732" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K100" s="732"/>
       <c r="L100" s="753"/>
@@ -14694,37 +14687,37 @@
       <c r="B101" s="577"/>
       <c r="C101" s="577"/>
       <c r="D101" s="546" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E101" s="749"/>
       <c r="F101" s="320"/>
       <c r="G101" s="321"/>
       <c r="H101" s="737" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I101" s="737" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J101" s="730" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K101" s="735" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L101" s="603"/>
       <c r="M101" s="624" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N101" s="625">
         <v>43818</v>
       </c>
       <c r="O101" s="599" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P101" s="750"/>
       <c r="Q101" s="751"/>
       <c r="R101" s="592" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S101" s="593" t="s">
         <v>219</v>
@@ -14737,37 +14730,37 @@
       <c r="B102" s="577"/>
       <c r="C102" s="577"/>
       <c r="D102" s="546" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E102" s="749"/>
       <c r="F102" s="320"/>
       <c r="G102" s="321"/>
       <c r="H102" s="737" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I102" s="737" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J102" s="730" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K102" s="735" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L102" s="603"/>
       <c r="M102" s="624" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N102" s="625">
         <v>43818</v>
       </c>
       <c r="O102" s="599" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P102" s="750"/>
       <c r="Q102" s="751"/>
       <c r="R102" s="592" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S102" s="593" t="s">
         <v>219</v>
@@ -14780,37 +14773,37 @@
       <c r="B103" s="577"/>
       <c r="C103" s="577"/>
       <c r="D103" s="546" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E103" s="749"/>
       <c r="F103" s="320"/>
       <c r="G103" s="321"/>
       <c r="H103" s="737" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I103" s="737" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J103" s="730" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K103" s="735" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L103" s="603"/>
       <c r="M103" s="624" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N103" s="625">
         <v>43818</v>
       </c>
       <c r="O103" s="599" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P103" s="750"/>
       <c r="Q103" s="751"/>
       <c r="R103" s="592" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S103" s="593" t="s">
         <v>219</v>
@@ -14978,37 +14971,37 @@
       <c r="B109" s="577"/>
       <c r="C109" s="577"/>
       <c r="D109" s="550" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E109" s="759"/>
       <c r="F109" s="300"/>
       <c r="G109" s="301"/>
       <c r="H109" s="737" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I109" s="737" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J109" s="735" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K109" s="735" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L109" s="603"/>
       <c r="M109" s="624" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N109" s="625">
         <v>43818</v>
       </c>
       <c r="O109" s="599" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P109" s="750"/>
       <c r="Q109" s="751"/>
       <c r="R109" s="592" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S109" s="593" t="s">
         <v>217</v>
@@ -15027,10 +15020,10 @@
       <c r="H110" s="583"/>
       <c r="I110" s="583"/>
       <c r="J110" s="768" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K110" s="732" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L110" s="769"/>
       <c r="M110" s="770"/>
@@ -15054,25 +15047,25 @@
       <c r="H111" s="577"/>
       <c r="I111" s="577"/>
       <c r="J111" s="730" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K111" s="735" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L111" s="603"/>
       <c r="M111" s="624" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N111" s="625">
         <v>43818</v>
       </c>
       <c r="O111" s="599" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P111" s="774"/>
       <c r="Q111" s="731"/>
       <c r="R111" s="592" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S111" s="593" t="s">
         <v>219</v>
@@ -15085,37 +15078,37 @@
       <c r="B112" s="577"/>
       <c r="C112" s="577"/>
       <c r="D112" s="765" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E112" s="749"/>
       <c r="F112" s="320"/>
       <c r="G112" s="321"/>
       <c r="H112" s="737" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I112" s="737" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J112" s="730" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K112" s="735" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L112" s="603"/>
       <c r="M112" s="624" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N112" s="625">
         <v>43818</v>
       </c>
       <c r="O112" s="599" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P112" s="750"/>
       <c r="Q112" s="751"/>
       <c r="R112" s="592" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S112" s="593" t="s">
         <v>219</v>
@@ -15128,37 +15121,37 @@
       <c r="B113" s="577"/>
       <c r="C113" s="577"/>
       <c r="D113" s="765" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E113" s="749"/>
       <c r="F113" s="320"/>
       <c r="G113" s="321"/>
       <c r="H113" s="737" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I113" s="737" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J113" s="726" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K113" s="735" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="L113" s="752"/>
       <c r="M113" s="624" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N113" s="625">
         <v>43818</v>
       </c>
       <c r="O113" s="599" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P113" s="750"/>
       <c r="Q113" s="751"/>
       <c r="R113" s="592" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S113" s="593" t="s">
         <v>218</v>
@@ -15171,37 +15164,37 @@
       <c r="B114" s="577"/>
       <c r="C114" s="577"/>
       <c r="D114" s="765" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E114" s="749"/>
       <c r="F114" s="320"/>
       <c r="G114" s="321"/>
       <c r="H114" s="737" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I114" s="737" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J114" s="775" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K114" s="775" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="L114" s="603"/>
       <c r="M114" s="624" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N114" s="625">
         <v>43818</v>
       </c>
       <c r="O114" s="599" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P114" s="606"/>
       <c r="Q114" s="751"/>
       <c r="R114" s="592" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S114" s="593" t="s">
         <v>226</v>
@@ -15214,19 +15207,19 @@
       <c r="B115" s="583"/>
       <c r="C115" s="583"/>
       <c r="D115" s="766" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E115" s="767"/>
       <c r="F115" s="320"/>
       <c r="G115" s="321"/>
       <c r="H115" s="745" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I115" s="745" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J115" s="732" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K115" s="732"/>
       <c r="L115" s="753"/>
@@ -15276,19 +15269,19 @@
       <c r="B117" s="583"/>
       <c r="C117" s="583"/>
       <c r="D117" s="776" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E117" s="777"/>
       <c r="F117" s="320"/>
       <c r="G117" s="321"/>
       <c r="H117" s="745" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I117" s="745" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J117" s="732" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K117" s="732"/>
       <c r="L117" s="753"/>
@@ -15307,19 +15300,19 @@
       <c r="B118" s="583"/>
       <c r="C118" s="583"/>
       <c r="D118" s="776" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E118" s="777"/>
       <c r="F118" s="320"/>
       <c r="G118" s="321"/>
       <c r="H118" s="745" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I118" s="745" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J118" s="732" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="K118" s="732"/>
       <c r="L118" s="753"/>
@@ -15338,19 +15331,19 @@
       <c r="B119" s="583"/>
       <c r="C119" s="583"/>
       <c r="D119" s="779" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E119" s="780"/>
       <c r="F119" s="320"/>
       <c r="G119" s="321"/>
       <c r="H119" s="745" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I119" s="745" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J119" s="781" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K119" s="781"/>
       <c r="L119" s="782"/>
@@ -15696,7 +15689,7 @@
     </row>
     <row r="6" spans="1:19" ht="12">
       <c r="A6" s="392" t="s">
-        <v>279</v>
+        <v>677</v>
       </c>
       <c r="B6" s="392"/>
       <c r="C6" s="392"/>
@@ -15704,15 +15697,15 @@
       <c r="E6" s="392"/>
       <c r="H6" s="392"/>
       <c r="I6" s="392" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J6" s="392" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="12">
       <c r="A7" s="392" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B7" s="392"/>
       <c r="C7" s="392"/>
@@ -15720,15 +15713,15 @@
       <c r="E7" s="392"/>
       <c r="H7" s="392"/>
       <c r="I7" s="392" t="s">
-        <v>603</v>
+        <v>678</v>
       </c>
       <c r="J7" s="392" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="12.75" thickBot="1">
       <c r="A8" s="393" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B8" s="393"/>
       <c r="C8" s="393"/>
@@ -15753,55 +15746,55 @@
     </row>
     <row r="10" spans="1:19" s="6" customFormat="1" ht="12">
       <c r="A10" s="791" t="s">
+        <v>281</v>
+      </c>
+      <c r="B10" s="792" t="s">
         <v>282</v>
       </c>
-      <c r="B10" s="792" t="s">
+      <c r="C10" s="792" t="s">
         <v>283</v>
       </c>
-      <c r="C10" s="792" t="s">
+      <c r="D10" s="792" t="s">
         <v>284</v>
       </c>
-      <c r="D10" s="792" t="s">
+      <c r="E10" s="793" t="s">
         <v>285</v>
       </c>
-      <c r="E10" s="793" t="s">
+      <c r="F10" s="794" t="s">
+        <v>295</v>
+      </c>
+      <c r="G10" s="795" t="s">
+        <v>296</v>
+      </c>
+      <c r="H10" s="796" t="s">
         <v>286</v>
       </c>
-      <c r="F10" s="794" t="s">
-        <v>296</v>
-      </c>
-      <c r="G10" s="795" t="s">
+      <c r="I10" s="792" t="s">
+        <v>287</v>
+      </c>
+      <c r="J10" s="797" t="s">
+        <v>288</v>
+      </c>
+      <c r="K10" s="797" t="s">
+        <v>289</v>
+      </c>
+      <c r="L10" s="105" t="s">
         <v>297</v>
       </c>
-      <c r="H10" s="796" t="s">
-        <v>287</v>
-      </c>
-      <c r="I10" s="792" t="s">
-        <v>288</v>
-      </c>
-      <c r="J10" s="797" t="s">
-        <v>289</v>
-      </c>
-      <c r="K10" s="797" t="s">
+      <c r="M10" s="797" t="s">
         <v>290</v>
       </c>
-      <c r="L10" s="105" t="s">
-        <v>298</v>
-      </c>
-      <c r="M10" s="797" t="s">
+      <c r="N10" s="797" t="s">
         <v>291</v>
       </c>
-      <c r="N10" s="797" t="s">
+      <c r="O10" s="797" t="s">
         <v>292</v>
       </c>
-      <c r="O10" s="797" t="s">
+      <c r="P10" s="797" t="s">
         <v>293</v>
       </c>
-      <c r="P10" s="797" t="s">
+      <c r="Q10" s="399" t="s">
         <v>294</v>
-      </c>
-      <c r="Q10" s="399" t="s">
-        <v>295</v>
       </c>
       <c r="R10" s="365"/>
       <c r="S10" s="365"/>
@@ -15811,41 +15804,41 @@
         <v>3</v>
       </c>
       <c r="B11" s="814" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C11" s="815" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D11" s="816"/>
       <c r="E11" s="817"/>
       <c r="F11" s="54"/>
       <c r="G11" s="55"/>
       <c r="H11" s="818" t="s">
+        <v>305</v>
+      </c>
+      <c r="I11" s="819" t="s">
         <v>306</v>
       </c>
-      <c r="I11" s="819" t="s">
-        <v>307</v>
-      </c>
       <c r="J11" s="819" t="s">
+        <v>528</v>
+      </c>
+      <c r="K11" s="819" t="s">
         <v>529</v>
-      </c>
-      <c r="K11" s="819" t="s">
-        <v>530</v>
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="56" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N11" s="77">
         <v>43818</v>
       </c>
       <c r="O11" s="57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P11" s="56"/>
       <c r="Q11" s="106"/>
       <c r="R11" s="365" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S11" s="365" t="s">
         <v>212</v>
@@ -15853,11 +15846,11 @@
     </row>
     <row r="12" spans="1:19" ht="12">
       <c r="A12" s="570" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B12" s="798"/>
       <c r="C12" s="799" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D12" s="800"/>
       <c r="E12" s="801"/>
@@ -15882,25 +15875,25 @@
     </row>
     <row r="13" spans="1:19" s="6" customFormat="1" ht="36">
       <c r="A13" s="570" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B13" s="803"/>
       <c r="C13" s="804" t="s">
+        <v>309</v>
+      </c>
+      <c r="D13" s="805" t="s">
+        <v>442</v>
+      </c>
+      <c r="E13" s="805" t="s">
         <v>310</v>
-      </c>
-      <c r="D13" s="805" t="s">
-        <v>443</v>
-      </c>
-      <c r="E13" s="805" t="s">
-        <v>311</v>
       </c>
       <c r="F13" s="427"/>
       <c r="G13" s="428"/>
       <c r="H13" s="806" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I13" s="807" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J13" s="125" t="s">
         <v>186</v>
@@ -15917,21 +15910,21 @@
     </row>
     <row r="14" spans="1:19" s="6" customFormat="1" ht="12">
       <c r="A14" s="570" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B14" s="803"/>
       <c r="C14" s="497"/>
       <c r="D14" s="423"/>
       <c r="E14" s="426" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F14" s="427"/>
       <c r="G14" s="428"/>
       <c r="H14" s="806" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I14" s="807" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J14" s="125" t="s">
         <v>186</v>
@@ -15948,21 +15941,21 @@
     </row>
     <row r="15" spans="1:19" s="6" customFormat="1" ht="48">
       <c r="A15" s="570" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B15" s="803"/>
       <c r="C15" s="497"/>
       <c r="D15" s="423"/>
       <c r="E15" s="426" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F15" s="427"/>
       <c r="G15" s="428"/>
       <c r="H15" s="808" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I15" s="809" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J15" s="125" t="s">
         <v>186</v>
@@ -15979,21 +15972,21 @@
     </row>
     <row r="16" spans="1:19" s="6" customFormat="1" ht="60">
       <c r="A16" s="570" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B16" s="803"/>
       <c r="C16" s="497"/>
       <c r="D16" s="423"/>
       <c r="E16" s="426" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F16" s="427"/>
       <c r="G16" s="428"/>
       <c r="H16" s="808" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I16" s="809" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J16" s="125" t="s">
         <v>186</v>
@@ -16010,21 +16003,21 @@
     </row>
     <row r="17" spans="1:19" s="6" customFormat="1" ht="12">
       <c r="A17" s="810" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B17" s="798"/>
       <c r="C17" s="811"/>
       <c r="D17" s="401" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E17" s="403"/>
       <c r="F17" s="81"/>
       <c r="G17" s="82"/>
       <c r="H17" s="420" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I17" s="422" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J17" s="141" t="s">
         <v>170</v>
@@ -16041,21 +16034,21 @@
     </row>
     <row r="18" spans="1:19" s="6" customFormat="1" ht="36">
       <c r="A18" s="810" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B18" s="798"/>
       <c r="C18" s="423"/>
       <c r="D18" s="401" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E18" s="812"/>
       <c r="F18" s="81"/>
       <c r="G18" s="82"/>
       <c r="H18" s="420" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I18" s="538" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J18" s="89" t="s">
         <v>187</v>
@@ -16198,26 +16191,26 @@
     </row>
     <row r="23" spans="1:19" ht="12">
       <c r="A23" s="835" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B23" s="798"/>
       <c r="C23" s="423"/>
       <c r="D23" s="836" t="s">
+        <v>327</v>
+      </c>
+      <c r="E23" s="837" t="s">
         <v>328</v>
-      </c>
-      <c r="E23" s="837" t="s">
-        <v>329</v>
       </c>
       <c r="F23" s="838"/>
       <c r="G23" s="839"/>
       <c r="H23" s="840" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I23" s="841" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J23" s="841" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K23" s="170"/>
       <c r="L23" s="165"/>
@@ -16229,24 +16222,24 @@
     </row>
     <row r="24" spans="1:19" ht="12">
       <c r="A24" s="835" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B24" s="798"/>
       <c r="C24" s="811"/>
       <c r="D24" s="419"/>
       <c r="E24" s="842" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F24" s="833"/>
       <c r="G24" s="834"/>
       <c r="H24" s="843" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I24" s="844" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J24" s="844" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K24" s="170"/>
       <c r="L24" s="165"/>
@@ -16258,24 +16251,24 @@
     </row>
     <row r="25" spans="1:19" ht="12">
       <c r="A25" s="845" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B25" s="798"/>
       <c r="C25" s="811"/>
       <c r="D25" s="419"/>
       <c r="E25" s="846" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F25" s="828"/>
       <c r="G25" s="829"/>
       <c r="H25" s="847" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I25" s="848" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J25" s="848" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K25" s="170"/>
       <c r="L25" s="165"/>
@@ -16287,24 +16280,24 @@
     </row>
     <row r="26" spans="1:19" ht="12">
       <c r="A26" s="849" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B26" s="798"/>
       <c r="C26" s="811"/>
       <c r="D26" s="419"/>
       <c r="E26" s="850" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F26" s="825"/>
       <c r="G26" s="826"/>
       <c r="H26" s="420" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I26" s="421" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J26" s="421" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K26" s="170"/>
       <c r="L26" s="165"/>
@@ -16316,24 +16309,24 @@
     </row>
     <row r="27" spans="1:19" ht="12">
       <c r="A27" s="851" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B27" s="798"/>
       <c r="C27" s="811"/>
       <c r="D27" s="423"/>
       <c r="E27" s="852" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F27" s="821"/>
       <c r="G27" s="822"/>
       <c r="H27" s="853" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I27" s="854" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J27" s="854" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K27" s="170"/>
       <c r="L27" s="165"/>
@@ -16345,24 +16338,24 @@
     </row>
     <row r="28" spans="1:19" ht="12">
       <c r="A28" s="855" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B28" s="798"/>
       <c r="C28" s="423"/>
       <c r="D28" s="423"/>
       <c r="E28" s="856" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F28" s="857"/>
       <c r="G28" s="858"/>
       <c r="H28" s="859" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I28" s="860" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J28" s="860" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K28" s="171"/>
       <c r="L28" s="172"/>
@@ -16374,24 +16367,24 @@
     </row>
     <row r="29" spans="1:19" ht="12">
       <c r="A29" s="861" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B29" s="798"/>
       <c r="C29" s="423"/>
       <c r="D29" s="429"/>
       <c r="E29" s="429" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F29" s="862"/>
       <c r="G29" s="863"/>
       <c r="H29" s="864" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I29" s="865" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J29" s="866" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K29" s="177"/>
       <c r="L29" s="178"/>
@@ -16403,26 +16396,26 @@
     </row>
     <row r="30" spans="1:19" ht="24">
       <c r="A30" s="810" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B30" s="798"/>
       <c r="C30" s="423"/>
       <c r="D30" s="423" t="s">
+        <v>336</v>
+      </c>
+      <c r="E30" s="429" t="s">
         <v>337</v>
-      </c>
-      <c r="E30" s="429" t="s">
-        <v>338</v>
       </c>
       <c r="F30" s="862"/>
       <c r="G30" s="863"/>
       <c r="H30" s="864" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I30" s="867" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J30" s="865" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K30" s="177"/>
       <c r="L30" s="178"/>
@@ -16434,26 +16427,26 @@
     </row>
     <row r="31" spans="1:19" s="6" customFormat="1" ht="50.25" customHeight="1">
       <c r="A31" s="810" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B31" s="803"/>
       <c r="C31" s="497"/>
       <c r="D31" s="868" t="s">
+        <v>339</v>
+      </c>
+      <c r="E31" s="869" t="s">
         <v>340</v>
-      </c>
-      <c r="E31" s="869" t="s">
-        <v>341</v>
       </c>
       <c r="F31" s="870"/>
       <c r="G31" s="871"/>
       <c r="H31" s="872" t="s">
+        <v>341</v>
+      </c>
+      <c r="I31" s="873" t="s">
         <v>342</v>
       </c>
-      <c r="I31" s="873" t="s">
+      <c r="J31" s="873" t="s">
         <v>343</v>
-      </c>
-      <c r="J31" s="873" t="s">
-        <v>344</v>
       </c>
       <c r="K31" s="183"/>
       <c r="L31" s="184"/>
@@ -16467,24 +16460,24 @@
     </row>
     <row r="32" spans="1:19" s="6" customFormat="1" ht="57" customHeight="1">
       <c r="A32" s="810" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B32" s="803"/>
       <c r="C32" s="497"/>
       <c r="D32" s="482"/>
       <c r="E32" s="869" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F32" s="870"/>
       <c r="G32" s="871"/>
       <c r="H32" s="872" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I32" s="873" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J32" s="873" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K32" s="183"/>
       <c r="L32" s="184"/>
@@ -16498,24 +16491,24 @@
     </row>
     <row r="33" spans="1:19" s="6" customFormat="1" ht="60">
       <c r="A33" s="810" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B33" s="803"/>
       <c r="C33" s="497"/>
       <c r="D33" s="482"/>
       <c r="E33" s="869" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F33" s="870"/>
       <c r="G33" s="871"/>
       <c r="H33" s="872" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I33" s="873" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J33" s="873" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K33" s="183"/>
       <c r="L33" s="184"/>
@@ -16529,24 +16522,24 @@
     </row>
     <row r="34" spans="1:19" s="6" customFormat="1" ht="50.25" customHeight="1">
       <c r="A34" s="810" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B34" s="803"/>
       <c r="C34" s="497"/>
       <c r="D34" s="482"/>
       <c r="E34" s="869" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F34" s="870"/>
       <c r="G34" s="871"/>
       <c r="H34" s="872" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I34" s="873" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J34" s="873" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K34" s="183"/>
       <c r="L34" s="184"/>
@@ -16560,24 +16553,24 @@
     </row>
     <row r="35" spans="1:19" ht="50.25" customHeight="1">
       <c r="A35" s="810" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B35" s="803"/>
       <c r="C35" s="497"/>
       <c r="D35" s="482"/>
       <c r="E35" s="869" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F35" s="870"/>
       <c r="G35" s="871"/>
       <c r="H35" s="872" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I35" s="873" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J35" s="873" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K35" s="183"/>
       <c r="L35" s="189"/>
@@ -16589,24 +16582,24 @@
     </row>
     <row r="36" spans="1:19" ht="50.25" customHeight="1">
       <c r="A36" s="810" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B36" s="803"/>
       <c r="C36" s="497"/>
       <c r="D36" s="482"/>
       <c r="E36" s="869" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F36" s="870"/>
       <c r="G36" s="871"/>
       <c r="H36" s="872" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I36" s="873" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J36" s="873" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K36" s="183"/>
       <c r="L36" s="189"/>
@@ -16618,24 +16611,24 @@
     </row>
     <row r="37" spans="1:19" ht="12">
       <c r="A37" s="810" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B37" s="803"/>
       <c r="C37" s="497"/>
       <c r="D37" s="482"/>
       <c r="E37" s="869" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F37" s="870"/>
       <c r="G37" s="871"/>
       <c r="H37" s="872" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I37" s="873" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J37" s="873" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K37" s="183"/>
       <c r="L37" s="189"/>
@@ -16647,24 +16640,24 @@
     </row>
     <row r="38" spans="1:19" ht="12">
       <c r="A38" s="810" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B38" s="803"/>
       <c r="C38" s="497"/>
       <c r="D38" s="482"/>
       <c r="E38" s="869" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F38" s="870"/>
       <c r="G38" s="871"/>
       <c r="H38" s="872" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I38" s="873" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J38" s="873" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K38" s="183"/>
       <c r="L38" s="189"/>
@@ -16676,24 +16669,24 @@
     </row>
     <row r="39" spans="1:19" ht="12">
       <c r="A39" s="810" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B39" s="803"/>
       <c r="C39" s="497"/>
       <c r="D39" s="484"/>
       <c r="E39" s="869" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F39" s="870"/>
       <c r="G39" s="871"/>
       <c r="H39" s="872" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I39" s="873" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J39" s="873" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K39" s="183"/>
       <c r="L39" s="189"/>
@@ -16705,26 +16698,26 @@
     </row>
     <row r="40" spans="1:19" ht="59.25" customHeight="1">
       <c r="A40" s="824" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B40" s="803"/>
       <c r="C40" s="497"/>
       <c r="D40" s="874" t="s">
+        <v>356</v>
+      </c>
+      <c r="E40" s="869" t="s">
         <v>357</v>
-      </c>
-      <c r="E40" s="869" t="s">
-        <v>358</v>
       </c>
       <c r="F40" s="870"/>
       <c r="G40" s="871"/>
       <c r="H40" s="872" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I40" s="873" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J40" s="873" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K40" s="183"/>
       <c r="L40" s="189"/>
@@ -16736,24 +16729,24 @@
     </row>
     <row r="41" spans="1:19" ht="60">
       <c r="A41" s="824" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B41" s="803"/>
       <c r="C41" s="497"/>
       <c r="D41" s="482"/>
       <c r="E41" s="869" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F41" s="870"/>
       <c r="G41" s="871"/>
       <c r="H41" s="872" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I41" s="873" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J41" s="873" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K41" s="183"/>
       <c r="L41" s="189"/>
@@ -16765,24 +16758,24 @@
     </row>
     <row r="42" spans="1:19" ht="54.75" customHeight="1">
       <c r="A42" s="824" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B42" s="803"/>
       <c r="C42" s="497"/>
       <c r="D42" s="482"/>
       <c r="E42" s="869" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F42" s="870"/>
       <c r="G42" s="871"/>
       <c r="H42" s="872" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I42" s="873" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J42" s="873" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K42" s="183"/>
       <c r="L42" s="189"/>
@@ -16794,24 +16787,24 @@
     </row>
     <row r="43" spans="1:19" ht="54.75" customHeight="1">
       <c r="A43" s="824" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B43" s="803"/>
       <c r="C43" s="497"/>
       <c r="D43" s="482"/>
       <c r="E43" s="869" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F43" s="870"/>
       <c r="G43" s="871"/>
       <c r="H43" s="872" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I43" s="873" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J43" s="873" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K43" s="183"/>
       <c r="L43" s="189"/>
@@ -16823,24 +16816,24 @@
     </row>
     <row r="44" spans="1:19" ht="12">
       <c r="A44" s="824" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B44" s="803"/>
       <c r="C44" s="497"/>
       <c r="D44" s="482"/>
       <c r="E44" s="489" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F44" s="870"/>
       <c r="G44" s="871"/>
       <c r="H44" s="875" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I44" s="876" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J44" s="873" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K44" s="192"/>
       <c r="L44" s="193"/>
@@ -16852,26 +16845,26 @@
     </row>
     <row r="45" spans="1:19" ht="24">
       <c r="A45" s="824" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B45" s="497"/>
       <c r="C45" s="877" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D45" s="878"/>
       <c r="E45" s="878" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F45" s="821"/>
       <c r="G45" s="822"/>
       <c r="H45" s="879" t="s">
+        <v>363</v>
+      </c>
+      <c r="I45" s="820" t="s">
         <v>364</v>
       </c>
-      <c r="I45" s="820" t="s">
+      <c r="J45" s="823" t="s">
         <v>365</v>
-      </c>
-      <c r="J45" s="823" t="s">
-        <v>366</v>
       </c>
       <c r="K45" s="195"/>
       <c r="L45" s="196"/>
@@ -16883,24 +16876,24 @@
     </row>
     <row r="46" spans="1:19" ht="24">
       <c r="A46" s="824" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B46" s="497"/>
       <c r="C46" s="497"/>
       <c r="D46" s="482"/>
       <c r="E46" s="827" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F46" s="828"/>
       <c r="G46" s="829"/>
       <c r="H46" s="830" t="s">
+        <v>363</v>
+      </c>
+      <c r="I46" s="831" t="s">
         <v>364</v>
       </c>
-      <c r="I46" s="831" t="s">
+      <c r="J46" s="832" t="s">
         <v>365</v>
-      </c>
-      <c r="J46" s="832" t="s">
-        <v>366</v>
       </c>
       <c r="K46" s="199"/>
       <c r="L46" s="200"/>
@@ -16912,24 +16905,24 @@
     </row>
     <row r="47" spans="1:19" ht="24">
       <c r="A47" s="824" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B47" s="497"/>
       <c r="C47" s="497"/>
       <c r="D47" s="482"/>
       <c r="E47" s="880" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F47" s="838"/>
       <c r="G47" s="839"/>
       <c r="H47" s="881" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I47" s="882" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J47" s="883" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K47" s="203"/>
       <c r="L47" s="204"/>
@@ -16941,24 +16934,24 @@
     </row>
     <row r="48" spans="1:19" ht="24">
       <c r="A48" s="824" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B48" s="497"/>
       <c r="C48" s="497"/>
       <c r="D48" s="482"/>
       <c r="E48" s="884" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F48" s="885"/>
       <c r="G48" s="886"/>
       <c r="H48" s="887" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I48" s="888" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J48" s="889" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K48" s="207"/>
       <c r="L48" s="208"/>
@@ -16970,24 +16963,24 @@
     </row>
     <row r="49" spans="1:19" ht="36">
       <c r="A49" s="824" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B49" s="497"/>
       <c r="C49" s="497"/>
       <c r="D49" s="482"/>
       <c r="E49" s="890" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F49" s="891"/>
       <c r="G49" s="892"/>
       <c r="H49" s="893" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I49" s="894" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J49" s="895" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K49" s="211"/>
       <c r="L49" s="212"/>
@@ -16999,24 +16992,24 @@
     </row>
     <row r="50" spans="1:19" ht="24">
       <c r="A50" s="824" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B50" s="497"/>
       <c r="C50" s="497"/>
       <c r="D50" s="482"/>
       <c r="E50" s="896" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F50" s="897"/>
       <c r="G50" s="898"/>
       <c r="H50" s="899" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I50" s="900" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J50" s="901" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K50" s="215"/>
       <c r="L50" s="216"/>
@@ -17028,24 +17021,24 @@
     </row>
     <row r="51" spans="1:19" ht="24">
       <c r="A51" s="824" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B51" s="497"/>
       <c r="C51" s="497"/>
       <c r="D51" s="482"/>
       <c r="E51" s="902" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F51" s="903"/>
       <c r="G51" s="904"/>
       <c r="H51" s="905" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I51" s="906" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J51" s="907" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K51" s="219"/>
       <c r="L51" s="220"/>
@@ -17057,24 +17050,24 @@
     </row>
     <row r="52" spans="1:19" ht="24">
       <c r="A52" s="824" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B52" s="497"/>
       <c r="C52" s="497"/>
       <c r="D52" s="482"/>
       <c r="E52" s="908" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F52" s="909"/>
       <c r="G52" s="910"/>
       <c r="H52" s="911" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I52" s="912" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J52" s="913" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K52" s="223"/>
       <c r="L52" s="224"/>
@@ -17086,24 +17079,24 @@
     </row>
     <row r="53" spans="1:19" ht="24">
       <c r="A53" s="824" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B53" s="526"/>
       <c r="C53" s="526"/>
       <c r="D53" s="482"/>
       <c r="E53" s="914" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F53" s="915"/>
       <c r="G53" s="916"/>
       <c r="H53" s="917" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I53" s="918" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J53" s="919" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K53" s="227"/>
       <c r="L53" s="228"/>
@@ -17115,48 +17108,48 @@
     </row>
     <row r="54" spans="1:19" s="6" customFormat="1" ht="36">
       <c r="A54" s="947" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B54" s="948" t="s">
+        <v>374</v>
+      </c>
+      <c r="C54" s="948" t="s">
         <v>375</v>
       </c>
-      <c r="C54" s="948" t="s">
+      <c r="D54" s="949" t="s">
         <v>376</v>
       </c>
-      <c r="D54" s="949" t="s">
+      <c r="E54" s="950" t="s">
         <v>377</v>
-      </c>
-      <c r="E54" s="950" t="s">
-        <v>378</v>
       </c>
       <c r="F54" s="951"/>
       <c r="G54" s="952"/>
       <c r="H54" s="953" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I54" s="948" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J54" s="954" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K54" s="955" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L54" s="375"/>
       <c r="M54" s="383" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="N54" s="384">
         <v>43900</v>
       </c>
       <c r="O54" s="385" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P54" s="956"/>
       <c r="Q54" s="957"/>
       <c r="R54" s="390" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S54" s="390" t="s">
         <v>227</v>
@@ -17164,42 +17157,42 @@
     </row>
     <row r="55" spans="1:19" s="6" customFormat="1" ht="36">
       <c r="A55" s="920" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B55" s="531"/>
       <c r="C55" s="531"/>
       <c r="D55" s="531"/>
       <c r="E55" s="921" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F55" s="922"/>
       <c r="G55" s="923"/>
       <c r="H55" s="924" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I55" s="924" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J55" s="925" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K55" s="941" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L55" s="9"/>
       <c r="M55" s="56" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N55" s="77">
         <v>43818</v>
       </c>
       <c r="O55" s="57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P55" s="7"/>
       <c r="Q55" s="109"/>
       <c r="R55" s="365" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S55" s="365" t="s">
         <v>227</v>
@@ -17207,42 +17200,42 @@
     </row>
     <row r="56" spans="1:19" s="6" customFormat="1" ht="36">
       <c r="A56" s="920" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B56" s="531"/>
       <c r="C56" s="531"/>
       <c r="D56" s="531"/>
       <c r="E56" s="921" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F56" s="922"/>
       <c r="G56" s="923"/>
       <c r="H56" s="924" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I56" s="924" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J56" s="925" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K56" s="941" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L56" s="9"/>
       <c r="M56" s="56" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N56" s="77">
         <v>43818</v>
       </c>
       <c r="O56" s="57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P56" s="7"/>
       <c r="Q56" s="109"/>
       <c r="R56" s="365" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S56" s="365" t="s">
         <v>227</v>
@@ -17250,42 +17243,42 @@
     </row>
     <row r="57" spans="1:19" s="12" customFormat="1" ht="36">
       <c r="A57" s="920" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B57" s="531"/>
       <c r="C57" s="531"/>
       <c r="D57" s="531"/>
       <c r="E57" s="921" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F57" s="922"/>
       <c r="G57" s="923"/>
       <c r="H57" s="924" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I57" s="924" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J57" s="925" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="K57" s="941" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L57" s="9"/>
       <c r="M57" s="56" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N57" s="77">
         <v>43818</v>
       </c>
       <c r="O57" s="57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P57" s="7"/>
       <c r="Q57" s="109"/>
       <c r="R57" s="365" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S57" s="365" t="s">
         <v>227</v>
@@ -17293,42 +17286,42 @@
     </row>
     <row r="58" spans="1:19" s="12" customFormat="1" ht="36">
       <c r="A58" s="920" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B58" s="531"/>
       <c r="C58" s="531"/>
       <c r="D58" s="554"/>
       <c r="E58" s="921" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F58" s="922"/>
       <c r="G58" s="923"/>
       <c r="H58" s="924" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I58" s="924" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J58" s="925" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K58" s="941" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L58" s="9"/>
       <c r="M58" s="56" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N58" s="77">
         <v>43818</v>
       </c>
       <c r="O58" s="57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P58" s="7"/>
       <c r="Q58" s="109"/>
       <c r="R58" s="365" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S58" s="365" t="s">
         <v>227</v>
@@ -17336,26 +17329,26 @@
     </row>
     <row r="59" spans="1:19" s="6" customFormat="1" ht="24">
       <c r="A59" s="824" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B59" s="423"/>
       <c r="C59" s="423"/>
       <c r="D59" s="926" t="s">
+        <v>384</v>
+      </c>
+      <c r="E59" s="536" t="s">
         <v>385</v>
-      </c>
-      <c r="E59" s="536" t="s">
-        <v>386</v>
       </c>
       <c r="F59" s="927"/>
       <c r="G59" s="928"/>
       <c r="H59" s="929" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I59" s="929" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J59" s="930" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K59" s="235"/>
       <c r="L59" s="21"/>
@@ -17369,24 +17362,24 @@
     </row>
     <row r="60" spans="1:19" s="6" customFormat="1" ht="24">
       <c r="A60" s="824" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B60" s="423"/>
       <c r="C60" s="423"/>
       <c r="D60" s="423"/>
       <c r="E60" s="930" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F60" s="927"/>
       <c r="G60" s="928"/>
       <c r="H60" s="929" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I60" s="929" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J60" s="930" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K60" s="235"/>
       <c r="L60" s="21"/>
@@ -17400,24 +17393,24 @@
     </row>
     <row r="61" spans="1:19" s="6" customFormat="1" ht="23.1" customHeight="1">
       <c r="A61" s="824" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B61" s="423"/>
       <c r="C61" s="423"/>
       <c r="D61" s="429"/>
       <c r="E61" s="930" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F61" s="927"/>
       <c r="G61" s="928"/>
       <c r="H61" s="929" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I61" s="929" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J61" s="930" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K61" s="235"/>
       <c r="L61" s="21"/>
@@ -17431,44 +17424,44 @@
     </row>
     <row r="62" spans="1:19" s="6" customFormat="1" ht="24">
       <c r="A62" s="920" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B62" s="531"/>
       <c r="C62" s="531"/>
       <c r="D62" s="931" t="s">
+        <v>389</v>
+      </c>
+      <c r="E62" s="932" t="s">
         <v>390</v>
-      </c>
-      <c r="E62" s="932" t="s">
-        <v>391</v>
       </c>
       <c r="F62" s="933"/>
       <c r="G62" s="934"/>
       <c r="H62" s="935" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I62" s="935" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J62" s="932" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K62" s="63" t="s">
         <v>167</v>
       </c>
       <c r="L62" s="9"/>
       <c r="M62" s="56" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N62" s="77">
         <v>43818</v>
       </c>
       <c r="O62" s="57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P62" s="7"/>
       <c r="Q62" s="309"/>
       <c r="R62" s="365" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S62" s="365" t="s">
         <v>228</v>
@@ -17476,42 +17469,42 @@
     </row>
     <row r="63" spans="1:19" s="6" customFormat="1" ht="33.75">
       <c r="A63" s="920" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B63" s="531"/>
       <c r="C63" s="531"/>
       <c r="D63" s="554"/>
       <c r="E63" s="932" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F63" s="933"/>
       <c r="G63" s="934"/>
       <c r="H63" s="935" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I63" s="935" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J63" s="932" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K63" s="63" t="s">
         <v>172</v>
       </c>
       <c r="L63" s="9"/>
       <c r="M63" s="56" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N63" s="77">
         <v>43818</v>
       </c>
       <c r="O63" s="57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P63" s="7"/>
       <c r="Q63" s="309"/>
       <c r="R63" s="365" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S63" s="365" t="s">
         <v>228</v>
@@ -17519,44 +17512,44 @@
     </row>
     <row r="64" spans="1:19" s="6" customFormat="1" ht="36">
       <c r="A64" s="920" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B64" s="531"/>
       <c r="C64" s="531"/>
       <c r="D64" s="931" t="s">
+        <v>392</v>
+      </c>
+      <c r="E64" s="932" t="s">
         <v>393</v>
-      </c>
-      <c r="E64" s="932" t="s">
-        <v>394</v>
       </c>
       <c r="F64" s="933"/>
       <c r="G64" s="934"/>
       <c r="H64" s="935" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I64" s="935" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J64" s="932" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="K64" s="110" t="s">
         <v>188</v>
       </c>
       <c r="L64" s="9"/>
       <c r="M64" s="56" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N64" s="77">
         <v>43818</v>
       </c>
       <c r="O64" s="57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P64" s="7"/>
       <c r="Q64" s="111"/>
       <c r="R64" s="365" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S64" s="365" t="s">
         <v>229</v>
@@ -17564,42 +17557,42 @@
     </row>
     <row r="65" spans="1:19" s="6" customFormat="1" ht="23.1" customHeight="1">
       <c r="A65" s="920" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B65" s="531"/>
       <c r="C65" s="531"/>
       <c r="D65" s="531"/>
       <c r="E65" s="932" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F65" s="933"/>
       <c r="G65" s="934"/>
       <c r="H65" s="935" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I65" s="935" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J65" s="932" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="K65" s="110" t="s">
         <v>188</v>
       </c>
       <c r="L65" s="9"/>
       <c r="M65" s="56" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N65" s="77">
         <v>43818</v>
       </c>
       <c r="O65" s="57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P65" s="7"/>
       <c r="Q65" s="111"/>
       <c r="R65" s="365" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S65" s="365" t="s">
         <v>230</v>
@@ -17613,18 +17606,18 @@
       <c r="C66" s="24"/>
       <c r="D66" s="24"/>
       <c r="E66" s="930" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F66" s="927"/>
       <c r="G66" s="928"/>
       <c r="H66" s="929" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I66" s="929" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J66" s="930" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K66" s="235"/>
       <c r="L66" s="21"/>
@@ -17644,18 +17637,18 @@
       <c r="C67" s="24"/>
       <c r="D67" s="24"/>
       <c r="E67" s="930" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F67" s="927"/>
       <c r="G67" s="928"/>
       <c r="H67" s="929" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I67" s="929" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J67" s="930" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K67" s="235"/>
       <c r="L67" s="21"/>
@@ -17673,18 +17666,18 @@
       <c r="C68" s="24"/>
       <c r="D68" s="24"/>
       <c r="E68" s="235" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F68" s="232"/>
       <c r="G68" s="233"/>
       <c r="H68" s="929" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I68" s="929" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J68" s="930" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K68" s="235"/>
       <c r="L68" s="21"/>
@@ -17704,18 +17697,18 @@
       <c r="C69" s="24"/>
       <c r="D69" s="24"/>
       <c r="E69" s="235" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F69" s="232"/>
       <c r="G69" s="233"/>
       <c r="H69" s="929" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I69" s="929" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J69" s="930" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K69" s="235"/>
       <c r="L69" s="21"/>
@@ -17735,18 +17728,18 @@
       <c r="C70" s="24"/>
       <c r="D70" s="24"/>
       <c r="E70" s="235" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F70" s="232"/>
       <c r="G70" s="233"/>
       <c r="H70" s="929" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I70" s="929" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J70" s="930" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K70" s="235"/>
       <c r="L70" s="21"/>
@@ -17771,13 +17764,13 @@
       <c r="F71" s="232"/>
       <c r="G71" s="233"/>
       <c r="H71" s="929" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I71" s="929" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J71" s="930" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K71" s="235"/>
       <c r="L71" s="21"/>
@@ -17796,21 +17789,21 @@
       <c r="B72" s="24"/>
       <c r="C72" s="24"/>
       <c r="D72" s="423" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E72" s="930" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F72" s="232"/>
       <c r="G72" s="233"/>
       <c r="H72" s="929" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I72" s="939" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J72" s="930" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="K72" s="235"/>
       <c r="L72" s="21"/>
@@ -17829,21 +17822,21 @@
       <c r="B73" s="24"/>
       <c r="C73" s="24"/>
       <c r="D73" s="936" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E73" s="930" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F73" s="232"/>
       <c r="G73" s="233"/>
       <c r="H73" s="929" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I73" s="936" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J73" s="930" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="K73" s="235"/>
       <c r="L73" s="21"/>
@@ -17863,18 +17856,18 @@
       <c r="C74" s="24"/>
       <c r="D74" s="423"/>
       <c r="E74" s="930" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F74" s="232"/>
       <c r="G74" s="233"/>
       <c r="H74" s="929" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I74" s="936" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J74" s="930" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="K74" s="235"/>
       <c r="L74" s="21"/>
@@ -17894,18 +17887,18 @@
       <c r="C75" s="24"/>
       <c r="D75" s="429"/>
       <c r="E75" s="930" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F75" s="232"/>
       <c r="G75" s="233"/>
       <c r="H75" s="929" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I75" s="936" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J75" s="930" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="K75" s="235"/>
       <c r="L75" s="21"/>
@@ -17924,21 +17917,21 @@
       <c r="B76" s="24"/>
       <c r="C76" s="24"/>
       <c r="D76" s="936" t="s">
+        <v>410</v>
+      </c>
+      <c r="E76" s="930" t="s">
         <v>411</v>
-      </c>
-      <c r="E76" s="930" t="s">
-        <v>412</v>
       </c>
       <c r="F76" s="232"/>
       <c r="G76" s="233"/>
       <c r="H76" s="929" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I76" s="936" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J76" s="930" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="K76" s="235"/>
       <c r="L76" s="21"/>
@@ -17958,18 +17951,18 @@
       <c r="C77" s="24"/>
       <c r="D77" s="423"/>
       <c r="E77" s="930" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F77" s="232"/>
       <c r="G77" s="233"/>
       <c r="H77" s="929" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I77" s="936" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J77" s="930" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="K77" s="235"/>
       <c r="L77" s="21"/>
@@ -17989,18 +17982,18 @@
       <c r="C78" s="24"/>
       <c r="D78" s="429"/>
       <c r="E78" s="937" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F78" s="232"/>
       <c r="G78" s="233"/>
       <c r="H78" s="929" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I78" s="936" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J78" s="930" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="K78" s="235"/>
       <c r="L78" s="21"/>
@@ -18019,19 +18012,19 @@
       <c r="B79" s="24"/>
       <c r="C79" s="24"/>
       <c r="D79" s="938" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E79" s="40"/>
       <c r="F79" s="42"/>
       <c r="G79" s="87"/>
       <c r="H79" s="929" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I79" s="936" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J79" s="930" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="K79" s="235"/>
       <c r="L79" s="21"/>
@@ -18080,40 +18073,40 @@
       </c>
       <c r="B81" s="378"/>
       <c r="C81" s="379" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D81" s="380" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E81" s="381"/>
       <c r="F81" s="943"/>
       <c r="G81" s="944"/>
       <c r="H81" s="945" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I81" s="945" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J81" s="382" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="K81" s="946" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L81" s="375"/>
       <c r="M81" s="383" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="N81" s="384">
         <v>43900</v>
       </c>
       <c r="O81" s="385" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P81" s="386"/>
       <c r="Q81" s="387"/>
       <c r="R81" s="390" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S81" s="390" t="s">
         <v>227</v>
@@ -18126,39 +18119,39 @@
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
       <c r="D82" s="116" t="s">
+        <v>596</v>
+      </c>
+      <c r="E82" s="117" t="s">
         <v>597</v>
-      </c>
-      <c r="E82" s="117" t="s">
-        <v>598</v>
       </c>
       <c r="F82" s="112"/>
       <c r="G82" s="113"/>
       <c r="H82" s="931" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I82" s="931" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J82" s="60" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="K82" s="932" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L82" s="9"/>
       <c r="M82" s="56" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N82" s="77">
         <v>43818</v>
       </c>
       <c r="O82" s="57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P82" s="114"/>
       <c r="Q82" s="115"/>
       <c r="R82" s="365" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S82" s="365" t="s">
         <v>227</v>
@@ -18172,18 +18165,18 @@
       <c r="C83" s="24"/>
       <c r="D83" s="238"/>
       <c r="E83" s="239" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F83" s="240"/>
       <c r="G83" s="241"/>
       <c r="H83" s="936" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I83" s="936" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J83" s="125" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="K83" s="235"/>
       <c r="L83" s="242"/>
@@ -18202,37 +18195,37 @@
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
       <c r="D84" s="116" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E84" s="118"/>
       <c r="F84" s="112"/>
       <c r="G84" s="113"/>
       <c r="H84" s="931" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I84" s="931" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J84" s="60" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="K84" s="932" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L84" s="9"/>
       <c r="M84" s="56" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N84" s="77">
         <v>43818</v>
       </c>
       <c r="O84" s="57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P84" s="114"/>
       <c r="Q84" s="115"/>
       <c r="R84" s="365" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S84" s="365" t="s">
         <v>227</v>
@@ -18245,37 +18238,37 @@
       <c r="B85" s="378"/>
       <c r="C85" s="378"/>
       <c r="D85" s="388" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E85" s="389"/>
       <c r="F85" s="943"/>
       <c r="G85" s="944"/>
       <c r="H85" s="945" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I85" s="945" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J85" s="382" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="K85" s="946" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L85" s="375"/>
       <c r="M85" s="383" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="N85" s="384">
         <v>43900</v>
       </c>
       <c r="O85" s="385" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P85" s="386"/>
       <c r="Q85" s="387"/>
       <c r="R85" s="390" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S85" s="390" t="s">
         <v>227</v>
@@ -18288,37 +18281,37 @@
       <c r="B86" s="378"/>
       <c r="C86" s="378"/>
       <c r="D86" s="388" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E86" s="389"/>
       <c r="F86" s="943"/>
       <c r="G86" s="944"/>
       <c r="H86" s="945" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I86" s="945" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J86" s="382" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="K86" s="946" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L86" s="375"/>
       <c r="M86" s="383" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="N86" s="384">
         <v>43900</v>
       </c>
       <c r="O86" s="385" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P86" s="386"/>
       <c r="Q86" s="387"/>
       <c r="R86" s="390" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S86" s="390" t="s">
         <v>227</v>
@@ -18486,37 +18479,37 @@
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
       <c r="D92" s="116" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E92" s="118"/>
       <c r="F92" s="112"/>
       <c r="G92" s="113"/>
       <c r="H92" s="931" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I92" s="931" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J92" s="60" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="K92" s="932" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L92" s="9"/>
       <c r="M92" s="56" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N92" s="77">
         <v>43818</v>
       </c>
       <c r="O92" s="57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P92" s="114"/>
       <c r="Q92" s="115"/>
       <c r="R92" s="365" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S92" s="365" t="s">
         <v>227</v>
@@ -18529,19 +18522,19 @@
       <c r="B93" s="24"/>
       <c r="C93" s="24"/>
       <c r="D93" s="238" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E93" s="247"/>
       <c r="F93" s="240"/>
       <c r="G93" s="241"/>
       <c r="H93" s="936" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I93" s="936" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J93" s="930" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="K93" s="235"/>
       <c r="L93" s="242"/>
@@ -18560,19 +18553,19 @@
       <c r="B94" s="24"/>
       <c r="C94" s="24"/>
       <c r="D94" s="238" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E94" s="247"/>
       <c r="F94" s="240"/>
       <c r="G94" s="241"/>
       <c r="H94" s="936" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I94" s="936" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J94" s="930" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K94" s="91"/>
       <c r="L94" s="242"/>
@@ -18591,19 +18584,19 @@
       <c r="B95" s="24"/>
       <c r="C95" s="24"/>
       <c r="D95" s="942" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E95" s="247"/>
       <c r="F95" s="240"/>
       <c r="G95" s="241"/>
       <c r="H95" s="936" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I95" s="936" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J95" s="930" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="K95" s="248"/>
       <c r="L95" s="21"/>
@@ -18622,19 +18615,19 @@
       <c r="B96" s="24"/>
       <c r="C96" s="24"/>
       <c r="D96" s="942" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E96" s="247"/>
       <c r="F96" s="240"/>
       <c r="G96" s="241"/>
       <c r="H96" s="936" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I96" s="936" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J96" s="930" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K96" s="235"/>
       <c r="L96" s="242"/>
@@ -18684,19 +18677,19 @@
       <c r="B98" s="24"/>
       <c r="C98" s="24"/>
       <c r="D98" s="551" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E98" s="28"/>
       <c r="F98" s="232"/>
       <c r="G98" s="233"/>
       <c r="H98" s="936" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I98" s="936" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J98" s="930" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="K98" s="231"/>
       <c r="L98" s="249"/>
@@ -18715,19 +18708,19 @@
       <c r="B99" s="24"/>
       <c r="C99" s="24"/>
       <c r="D99" s="551" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E99" s="28"/>
       <c r="F99" s="232"/>
       <c r="G99" s="233"/>
       <c r="H99" s="936" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I99" s="936" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J99" s="930" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="K99" s="231"/>
       <c r="L99" s="249"/>
@@ -18746,37 +18739,37 @@
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
       <c r="D100" s="552" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E100" s="31"/>
       <c r="F100" s="107"/>
       <c r="G100" s="108"/>
       <c r="H100" s="931" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I100" s="931" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J100" s="940" t="s">
+        <v>592</v>
+      </c>
+      <c r="K100" s="940" t="s">
         <v>593</v>
-      </c>
-      <c r="K100" s="940" t="s">
-        <v>594</v>
       </c>
       <c r="L100" s="9"/>
       <c r="M100" s="56" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N100" s="77">
         <v>43818</v>
       </c>
       <c r="O100" s="57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P100" s="74"/>
       <c r="Q100" s="119"/>
       <c r="R100" s="365" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S100" s="365" t="s">
         <v>231</v>
@@ -19120,7 +19113,7 @@
     </row>
     <row r="6" spans="1:19" ht="12">
       <c r="A6" s="392" t="s">
-        <v>279</v>
+        <v>677</v>
       </c>
       <c r="B6" s="392"/>
       <c r="C6" s="392"/>
@@ -19131,15 +19124,15 @@
       <c r="H6" s="392"/>
       <c r="I6" s="392"/>
       <c r="J6" s="392" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K6" s="392" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="12">
       <c r="A7" s="392" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B7" s="392"/>
       <c r="C7" s="392"/>
@@ -19150,10 +19143,10 @@
       <c r="H7" s="392"/>
       <c r="I7" s="392"/>
       <c r="J7" s="392" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K7" s="392" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="12" thickBot="1">
@@ -19180,55 +19173,55 @@
     </row>
     <row r="10" spans="1:19" s="6" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="A10" s="967" t="s">
+        <v>281</v>
+      </c>
+      <c r="B10" s="967" t="s">
         <v>282</v>
       </c>
-      <c r="B10" s="967" t="s">
+      <c r="C10" s="967" t="s">
         <v>283</v>
       </c>
-      <c r="C10" s="967" t="s">
+      <c r="D10" s="967" t="s">
         <v>284</v>
       </c>
-      <c r="D10" s="967" t="s">
+      <c r="E10" s="967" t="s">
         <v>285</v>
       </c>
-      <c r="E10" s="967" t="s">
+      <c r="F10" s="41" t="s">
+        <v>295</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>296</v>
+      </c>
+      <c r="H10" s="967" t="s">
         <v>286</v>
       </c>
-      <c r="F10" s="41" t="s">
-        <v>296</v>
-      </c>
-      <c r="G10" s="41" t="s">
+      <c r="I10" s="967" t="s">
+        <v>287</v>
+      </c>
+      <c r="J10" s="968" t="s">
+        <v>288</v>
+      </c>
+      <c r="K10" s="968" t="s">
+        <v>289</v>
+      </c>
+      <c r="L10" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="H10" s="967" t="s">
-        <v>287</v>
-      </c>
-      <c r="I10" s="967" t="s">
-        <v>288</v>
-      </c>
-      <c r="J10" s="968" t="s">
-        <v>289</v>
-      </c>
-      <c r="K10" s="968" t="s">
+      <c r="M10" s="968" t="s">
         <v>290</v>
       </c>
-      <c r="L10" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="M10" s="968" t="s">
+      <c r="N10" s="968" t="s">
         <v>291</v>
       </c>
-      <c r="N10" s="968" t="s">
+      <c r="O10" s="968" t="s">
         <v>292</v>
       </c>
-      <c r="O10" s="968" t="s">
+      <c r="P10" s="968" t="s">
         <v>293</v>
       </c>
-      <c r="P10" s="968" t="s">
+      <c r="Q10" s="968" t="s">
         <v>294</v>
-      </c>
-      <c r="Q10" s="968" t="s">
-        <v>295</v>
       </c>
       <c r="R10" s="365"/>
       <c r="S10" s="365"/>
@@ -19238,38 +19231,38 @@
         <v>146</v>
       </c>
       <c r="B11" s="931" t="s">
+        <v>623</v>
+      </c>
+      <c r="C11" s="931" t="s">
+        <v>624</v>
+      </c>
+      <c r="D11" s="969" t="s">
         <v>625</v>
-      </c>
-      <c r="C11" s="931" t="s">
-        <v>626</v>
-      </c>
-      <c r="D11" s="969" t="s">
-        <v>627</v>
       </c>
       <c r="E11" s="970"/>
       <c r="F11" s="261"/>
       <c r="G11" s="261"/>
       <c r="H11" s="931" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="I11" s="931" t="s">
+        <v>627</v>
+      </c>
+      <c r="J11" s="43" t="s">
+        <v>631</v>
+      </c>
+      <c r="K11" s="43" t="s">
         <v>629</v>
-      </c>
-      <c r="J11" s="43" t="s">
-        <v>633</v>
-      </c>
-      <c r="K11" s="43" t="s">
-        <v>631</v>
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="56" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N11" s="77">
         <v>43818</v>
       </c>
       <c r="O11" s="57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P11" s="262"/>
       <c r="Q11" s="262"/>
@@ -19293,20 +19286,20 @@
       <c r="H12" s="358"/>
       <c r="I12" s="358"/>
       <c r="J12" s="357" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="K12" s="43" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L12" s="9"/>
       <c r="M12" s="56" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N12" s="77">
         <v>43818</v>
       </c>
       <c r="O12" s="57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P12" s="370"/>
       <c r="Q12" s="370"/>
@@ -19330,20 +19323,20 @@
       <c r="H13" s="358"/>
       <c r="I13" s="358"/>
       <c r="J13" s="357" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="K13" s="43" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L13" s="9"/>
       <c r="M13" s="56" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N13" s="77">
         <v>43818</v>
       </c>
       <c r="O13" s="57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P13" s="370"/>
       <c r="Q13" s="370"/>
@@ -19367,20 +19360,20 @@
       <c r="H14" s="358"/>
       <c r="I14" s="358"/>
       <c r="J14" s="357" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="K14" s="43" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L14" s="9"/>
       <c r="M14" s="56" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N14" s="77">
         <v>43818</v>
       </c>
       <c r="O14" s="57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P14" s="370"/>
       <c r="Q14" s="370"/>
@@ -19404,20 +19397,20 @@
       <c r="H15" s="358"/>
       <c r="I15" s="358"/>
       <c r="J15" s="357" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="K15" s="43" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L15" s="9"/>
       <c r="M15" s="56" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N15" s="77">
         <v>43818</v>
       </c>
       <c r="O15" s="57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P15" s="370"/>
       <c r="Q15" s="370"/>
@@ -19441,20 +19434,20 @@
       <c r="H16" s="358"/>
       <c r="I16" s="358"/>
       <c r="J16" s="357" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="K16" s="43" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L16" s="9"/>
       <c r="M16" s="56" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N16" s="77">
         <v>43818</v>
       </c>
       <c r="O16" s="57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P16" s="370"/>
       <c r="Q16" s="370"/>
@@ -19478,20 +19471,20 @@
       <c r="H17" s="358"/>
       <c r="I17" s="358"/>
       <c r="J17" s="357" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="K17" s="43" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L17" s="9"/>
       <c r="M17" s="56" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N17" s="77">
         <v>43818</v>
       </c>
       <c r="O17" s="57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P17" s="370"/>
       <c r="Q17" s="370"/>
@@ -19515,20 +19508,20 @@
       <c r="H18" s="358"/>
       <c r="I18" s="358"/>
       <c r="J18" s="357" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="K18" s="43" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L18" s="9"/>
       <c r="M18" s="56" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N18" s="77">
         <v>43818</v>
       </c>
       <c r="O18" s="57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P18" s="370"/>
       <c r="Q18" s="370"/>
@@ -19552,20 +19545,20 @@
       <c r="H19" s="358"/>
       <c r="I19" s="358"/>
       <c r="J19" s="357" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="K19" s="43" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L19" s="9"/>
       <c r="M19" s="56" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N19" s="77">
         <v>43818</v>
       </c>
       <c r="O19" s="57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P19" s="370"/>
       <c r="Q19" s="370"/>
@@ -19589,20 +19582,20 @@
       <c r="H20" s="358"/>
       <c r="I20" s="358"/>
       <c r="J20" s="357" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="K20" s="43" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L20" s="9"/>
       <c r="M20" s="56" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N20" s="77">
         <v>43818</v>
       </c>
       <c r="O20" s="57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P20" s="370"/>
       <c r="Q20" s="370"/>
@@ -19626,20 +19619,20 @@
       <c r="H21" s="358"/>
       <c r="I21" s="358"/>
       <c r="J21" s="357" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="K21" s="43" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="56" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N21" s="77">
         <v>43818</v>
       </c>
       <c r="O21" s="57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P21" s="370"/>
       <c r="Q21" s="370"/>
@@ -19663,20 +19656,20 @@
       <c r="H22" s="358"/>
       <c r="I22" s="358"/>
       <c r="J22" s="357" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="K22" s="43" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L22" s="9"/>
       <c r="M22" s="56" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N22" s="77">
         <v>43818</v>
       </c>
       <c r="O22" s="57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P22" s="370"/>
       <c r="Q22" s="370"/>
@@ -19700,20 +19693,20 @@
       <c r="H23" s="358"/>
       <c r="I23" s="358"/>
       <c r="J23" s="357" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="K23" s="43" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L23" s="9"/>
       <c r="M23" s="56" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N23" s="77">
         <v>43818</v>
       </c>
       <c r="O23" s="57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P23" s="370"/>
       <c r="Q23" s="370"/>
@@ -19737,20 +19730,20 @@
       <c r="H24" s="358"/>
       <c r="I24" s="358"/>
       <c r="J24" s="357" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="K24" s="43" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L24" s="9"/>
       <c r="M24" s="56" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N24" s="77">
         <v>43818</v>
       </c>
       <c r="O24" s="57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P24" s="370"/>
       <c r="Q24" s="370"/>
@@ -19774,20 +19767,20 @@
       <c r="H25" s="358"/>
       <c r="I25" s="358"/>
       <c r="J25" s="357" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="K25" s="43" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L25" s="9"/>
       <c r="M25" s="56" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N25" s="77">
         <v>43818</v>
       </c>
       <c r="O25" s="57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P25" s="370"/>
       <c r="Q25" s="370"/>
@@ -19811,20 +19804,20 @@
       <c r="H26" s="358"/>
       <c r="I26" s="358"/>
       <c r="J26" s="357" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="K26" s="43" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L26" s="9"/>
       <c r="M26" s="56" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N26" s="77">
         <v>43818</v>
       </c>
       <c r="O26" s="57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P26" s="370"/>
       <c r="Q26" s="370"/>
@@ -19842,30 +19835,30 @@
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="971" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E27" s="46"/>
       <c r="F27" s="261"/>
       <c r="G27" s="261"/>
       <c r="H27" s="931" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="I27" s="931" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="J27" s="255" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="K27" s="43"/>
       <c r="L27" s="264"/>
       <c r="M27" s="56" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N27" s="77">
         <v>43818</v>
       </c>
       <c r="O27" s="57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P27" s="265"/>
       <c r="Q27" s="265"/>
@@ -19880,38 +19873,38 @@
       <c r="A28" s="376" t="s">
         <v>274</v>
       </c>
-      <c r="B28" s="978"/>
-      <c r="C28" s="978"/>
+      <c r="B28" s="976"/>
+      <c r="C28" s="976"/>
       <c r="D28" s="371" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E28" s="372"/>
-      <c r="F28" s="979"/>
-      <c r="G28" s="979"/>
+      <c r="F28" s="977"/>
+      <c r="G28" s="977"/>
       <c r="H28" s="945" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="I28" s="945" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="J28" s="373" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="K28" s="374" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="L28" s="375"/>
       <c r="M28" s="383" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="N28" s="384">
         <v>43900</v>
       </c>
       <c r="O28" s="385" t="s">
-        <v>301</v>
-      </c>
-      <c r="P28" s="980"/>
-      <c r="Q28" s="980"/>
+        <v>300</v>
+      </c>
+      <c r="P28" s="978"/>
+      <c r="Q28" s="978"/>
       <c r="R28" s="365"/>
       <c r="S28" s="365"/>
     </row>
@@ -19921,33 +19914,33 @@
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
-      <c r="D29" s="981" t="s">
-        <v>663</v>
+      <c r="D29" s="979" t="s">
+        <v>661</v>
       </c>
       <c r="E29" s="46"/>
       <c r="F29" s="361"/>
       <c r="G29" s="361"/>
       <c r="H29" s="931" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="I29" s="931" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="J29" s="43" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="K29" s="255" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="L29" s="264"/>
       <c r="M29" s="56" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N29" s="77">
         <v>43818</v>
       </c>
       <c r="O29" s="57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P29" s="265"/>
       <c r="Q29" s="265"/>
@@ -19965,19 +19958,19 @@
       <c r="B30" s="316"/>
       <c r="C30" s="316"/>
       <c r="D30" s="972" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E30" s="47"/>
       <c r="F30" s="48"/>
       <c r="G30" s="48"/>
       <c r="H30" s="936" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="I30" s="936" t="s">
-        <v>649</v>
-      </c>
-      <c r="J30" s="977" t="s">
-        <v>673</v>
+        <v>647</v>
+      </c>
+      <c r="J30" s="975" t="s">
+        <v>671</v>
       </c>
       <c r="K30" s="258"/>
       <c r="L30" s="270"/>
@@ -19995,35 +19988,35 @@
       </c>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
-      <c r="D31" s="975" t="s">
-        <v>661</v>
-      </c>
-      <c r="E31" s="976" t="s">
-        <v>443</v>
+      <c r="D31" s="973" t="s">
+        <v>659</v>
+      </c>
+      <c r="E31" s="974" t="s">
+        <v>442</v>
       </c>
       <c r="F31" s="261"/>
       <c r="G31" s="261"/>
       <c r="H31" s="931" t="s">
+        <v>626</v>
+      </c>
+      <c r="I31" s="931" t="s">
+        <v>647</v>
+      </c>
+      <c r="J31" s="255" t="s">
+        <v>670</v>
+      </c>
+      <c r="K31" s="43" t="s">
         <v>628</v>
-      </c>
-      <c r="I31" s="931" t="s">
-        <v>649</v>
-      </c>
-      <c r="J31" s="255" t="s">
-        <v>672</v>
-      </c>
-      <c r="K31" s="43" t="s">
-        <v>630</v>
       </c>
       <c r="L31" s="9"/>
       <c r="M31" s="56" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N31" s="77">
         <v>43818</v>
       </c>
       <c r="O31" s="57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P31" s="265"/>
       <c r="Q31" s="265"/>
@@ -20042,18 +20035,18 @@
       <c r="C32" s="316"/>
       <c r="D32" s="316"/>
       <c r="E32" s="25" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F32" s="48"/>
       <c r="G32" s="48"/>
       <c r="H32" s="936" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="I32" s="936" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="J32" s="258" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="K32" s="38"/>
       <c r="L32" s="21"/>
@@ -20073,18 +20066,18 @@
       <c r="C33" s="316"/>
       <c r="D33" s="316"/>
       <c r="E33" s="45" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F33" s="48"/>
       <c r="G33" s="48"/>
       <c r="H33" s="936" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="I33" s="936" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="J33" s="258" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="K33" s="258"/>
       <c r="L33" s="270"/>
@@ -20103,32 +20096,32 @@
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
       <c r="D34" s="362"/>
-      <c r="E34" s="982" t="s">
-        <v>356</v>
+      <c r="E34" s="980" t="s">
+        <v>355</v>
       </c>
       <c r="F34" s="361"/>
       <c r="G34" s="361"/>
       <c r="H34" s="931" t="s">
+        <v>626</v>
+      </c>
+      <c r="I34" s="931" t="s">
+        <v>647</v>
+      </c>
+      <c r="J34" s="255" t="s">
+        <v>672</v>
+      </c>
+      <c r="K34" s="43" t="s">
         <v>628</v>
-      </c>
-      <c r="I34" s="931" t="s">
-        <v>649</v>
-      </c>
-      <c r="J34" s="255" t="s">
-        <v>674</v>
-      </c>
-      <c r="K34" s="43" t="s">
-        <v>630</v>
       </c>
       <c r="L34" s="9"/>
       <c r="M34" s="56" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N34" s="77">
         <v>43818</v>
       </c>
       <c r="O34" s="57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P34" s="265"/>
       <c r="Q34" s="265"/>
@@ -20145,35 +20138,35 @@
       </c>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
-      <c r="D35" s="982" t="s">
-        <v>659</v>
+      <c r="D35" s="980" t="s">
+        <v>657</v>
       </c>
       <c r="E35" s="744" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="F35" s="361"/>
       <c r="G35" s="361"/>
       <c r="H35" s="931" t="s">
+        <v>626</v>
+      </c>
+      <c r="I35" s="931" t="s">
+        <v>647</v>
+      </c>
+      <c r="J35" s="255" t="s">
+        <v>673</v>
+      </c>
+      <c r="K35" s="43" t="s">
         <v>628</v>
-      </c>
-      <c r="I35" s="931" t="s">
-        <v>649</v>
-      </c>
-      <c r="J35" s="255" t="s">
-        <v>675</v>
-      </c>
-      <c r="K35" s="43" t="s">
-        <v>630</v>
       </c>
       <c r="L35" s="9"/>
       <c r="M35" s="56" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N35" s="77">
         <v>43818</v>
       </c>
       <c r="O35" s="57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P35" s="265"/>
       <c r="Q35" s="265"/>
@@ -20190,33 +20183,33 @@
       </c>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
-      <c r="D36" s="983" t="s">
-        <v>657</v>
+      <c r="D36" s="981" t="s">
+        <v>655</v>
       </c>
       <c r="E36" s="744" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F36" s="261"/>
       <c r="G36" s="261"/>
       <c r="H36" s="931" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="I36" s="931" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="J36" s="255" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="K36" s="255"/>
       <c r="L36" s="264"/>
       <c r="M36" s="56" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N36" s="77">
         <v>43818</v>
       </c>
       <c r="O36" s="57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P36" s="265"/>
       <c r="Q36" s="265"/>
@@ -20233,20 +20226,20 @@
       </c>
       <c r="B37" s="316"/>
       <c r="C37" s="316"/>
-      <c r="D37" s="973" t="s">
-        <v>655</v>
-      </c>
-      <c r="E37" s="974"/>
+      <c r="D37" s="982" t="s">
+        <v>653</v>
+      </c>
+      <c r="E37" s="983"/>
       <c r="F37" s="48"/>
       <c r="G37" s="48"/>
       <c r="H37" s="936" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="I37" s="936" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="J37" s="930" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="K37" s="258"/>
       <c r="L37" s="270"/>
@@ -20267,19 +20260,19 @@
         <v>2</v>
       </c>
       <c r="D38" s="972" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E38" s="47"/>
       <c r="F38" s="48"/>
       <c r="G38" s="48"/>
       <c r="H38" s="936" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="I38" s="936" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="J38" s="930" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="K38" s="258"/>
       <c r="L38" s="270"/>
@@ -20298,19 +20291,19 @@
       <c r="B39" s="317"/>
       <c r="C39" s="317"/>
       <c r="D39" s="972" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E39" s="47"/>
       <c r="F39" s="48"/>
       <c r="G39" s="48"/>
       <c r="H39" s="936" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="I39" s="936" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="J39" s="930" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K39" s="258"/>
       <c r="L39" s="270"/>
@@ -20559,7 +20552,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="960" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B3" s="959"/>
       <c r="C3" s="959"/>
@@ -20568,19 +20561,19 @@
     <row r="4" spans="1:4">
       <c r="A4" s="959"/>
       <c r="B4" s="961" t="s">
+        <v>614</v>
+      </c>
+      <c r="C4" s="962" t="s">
+        <v>615</v>
+      </c>
+      <c r="D4" s="961" t="s">
         <v>616</v>
-      </c>
-      <c r="C4" s="962" t="s">
-        <v>617</v>
-      </c>
-      <c r="D4" s="961" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="959"/>
       <c r="B5" s="958" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C5" s="958" t="s">
         <v>194</v>
@@ -20592,7 +20585,7 @@
     <row r="6" spans="1:4">
       <c r="A6" s="959"/>
       <c r="B6" s="958" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C6" s="958" t="s">
         <v>196</v>
@@ -20604,7 +20597,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="959"/>
       <c r="B7" s="958" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C7" s="958" t="s">
         <v>197</v>
@@ -20616,7 +20609,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="959"/>
       <c r="B8" s="958" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C8" s="958" t="s">
         <v>198</v>
@@ -20628,7 +20621,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="959"/>
       <c r="B9" s="958" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C9" s="958" t="s">
         <v>199</v>
@@ -20640,7 +20633,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="959"/>
       <c r="B10" s="958" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C10" s="958" t="s">
         <v>200</v>
@@ -20652,7 +20645,7 @@
     <row r="11" spans="1:4">
       <c r="A11" s="959"/>
       <c r="B11" s="958" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C11" s="958" t="s">
         <v>201</v>
@@ -20664,7 +20657,7 @@
     <row r="12" spans="1:4">
       <c r="A12" s="959"/>
       <c r="B12" s="958" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C12" s="958" t="s">
         <v>202</v>
@@ -20676,7 +20669,7 @@
     <row r="13" spans="1:4">
       <c r="A13" s="959"/>
       <c r="B13" s="958" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C13" s="958" t="s">
         <v>203</v>
@@ -20688,7 +20681,7 @@
     <row r="14" spans="1:4">
       <c r="A14" s="959"/>
       <c r="B14" s="958" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C14" s="958" t="s">
         <v>204</v>
@@ -20700,7 +20693,7 @@
     <row r="15" spans="1:4">
       <c r="A15" s="959"/>
       <c r="B15" s="958" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C15" s="958" t="s">
         <v>205</v>
@@ -20732,7 +20725,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="963" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B19" s="964"/>
       <c r="C19" s="959"/>
@@ -20741,7 +20734,7 @@
     <row r="20" spans="1:5">
       <c r="A20" s="959"/>
       <c r="B20" s="960" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C20" s="959"/>
       <c r="D20" s="959"/>
@@ -20749,19 +20742,19 @@
     <row r="21" spans="1:5">
       <c r="A21" s="959"/>
       <c r="B21" s="961" t="s">
+        <v>614</v>
+      </c>
+      <c r="C21" s="962" t="s">
+        <v>615</v>
+      </c>
+      <c r="D21" s="961" t="s">
         <v>616</v>
-      </c>
-      <c r="C21" s="962" t="s">
-        <v>617</v>
-      </c>
-      <c r="D21" s="961" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="959"/>
       <c r="B22" s="958" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C22" s="958" t="s">
         <v>194</v>
@@ -20771,7 +20764,7 @@
     <row r="23" spans="1:5">
       <c r="A23" s="959"/>
       <c r="B23" s="958" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C23" s="958" t="s">
         <v>196</v>
@@ -20781,7 +20774,7 @@
     <row r="24" spans="1:5">
       <c r="A24" s="959"/>
       <c r="B24" s="958" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C24" s="958" t="s">
         <v>197</v>
@@ -20792,7 +20785,7 @@
     <row r="25" spans="1:5">
       <c r="A25" s="959"/>
       <c r="B25" s="958" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C25" s="958" t="s">
         <v>198</v>
@@ -20803,7 +20796,7 @@
     <row r="26" spans="1:5">
       <c r="A26" s="959"/>
       <c r="B26" s="958" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C26" s="958" t="s">
         <v>199</v>
@@ -20815,7 +20808,7 @@
     <row r="27" spans="1:5">
       <c r="A27" s="959"/>
       <c r="B27" s="958" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C27" s="958" t="s">
         <v>200</v>
@@ -20827,7 +20820,7 @@
     <row r="28" spans="1:5">
       <c r="A28" s="959"/>
       <c r="B28" s="958" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C28" s="958" t="s">
         <v>201</v>
@@ -20839,7 +20832,7 @@
     <row r="29" spans="1:5">
       <c r="A29" s="959"/>
       <c r="B29" s="958" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C29" s="958" t="s">
         <v>202</v>
@@ -20851,7 +20844,7 @@
     <row r="30" spans="1:5">
       <c r="A30" s="959"/>
       <c r="B30" s="958" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C30" s="958" t="s">
         <v>203</v>
@@ -20863,7 +20856,7 @@
     <row r="31" spans="1:5">
       <c r="A31" s="959"/>
       <c r="B31" s="958" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C31" s="958" t="s">
         <v>204</v>
@@ -20875,7 +20868,7 @@
     <row r="32" spans="1:5">
       <c r="A32" s="959"/>
       <c r="B32" s="958" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C32" s="958" t="s">
         <v>205</v>
@@ -20906,7 +20899,7 @@
     <row r="36" spans="1:4">
       <c r="A36" s="959"/>
       <c r="B36" s="960" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C36" s="959"/>
       <c r="D36" s="959"/>
@@ -20914,19 +20907,19 @@
     <row r="37" spans="1:4">
       <c r="A37" s="959"/>
       <c r="B37" s="961" t="s">
+        <v>614</v>
+      </c>
+      <c r="C37" s="962" t="s">
+        <v>615</v>
+      </c>
+      <c r="D37" s="961" t="s">
         <v>616</v>
-      </c>
-      <c r="C37" s="962" t="s">
-        <v>617</v>
-      </c>
-      <c r="D37" s="961" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="959"/>
       <c r="B38" s="958" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C38" s="958" t="s">
         <v>194</v>
@@ -20936,7 +20929,7 @@
     <row r="39" spans="1:4">
       <c r="A39" s="959"/>
       <c r="B39" s="958" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C39" s="958" t="s">
         <v>196</v>
@@ -20946,7 +20939,7 @@
     <row r="40" spans="1:4">
       <c r="A40" s="959"/>
       <c r="B40" s="958" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C40" s="958" t="s">
         <v>197</v>
@@ -20956,7 +20949,7 @@
     <row r="41" spans="1:4">
       <c r="A41" s="959"/>
       <c r="B41" s="958" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C41" s="958" t="s">
         <v>198</v>
@@ -20966,7 +20959,7 @@
     <row r="42" spans="1:4">
       <c r="A42" s="959"/>
       <c r="B42" s="958" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C42" s="958" t="s">
         <v>199</v>
@@ -20978,7 +20971,7 @@
     <row r="43" spans="1:4">
       <c r="A43" s="959"/>
       <c r="B43" s="958" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C43" s="958" t="s">
         <v>200</v>
@@ -20990,7 +20983,7 @@
     <row r="44" spans="1:4">
       <c r="A44" s="959"/>
       <c r="B44" s="958" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C44" s="958" t="s">
         <v>201</v>
@@ -21002,7 +20995,7 @@
     <row r="45" spans="1:4">
       <c r="A45" s="959"/>
       <c r="B45" s="958" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C45" s="958" t="s">
         <v>202</v>
@@ -21014,7 +21007,7 @@
     <row r="46" spans="1:4">
       <c r="A46" s="959"/>
       <c r="B46" s="958" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C46" s="958" t="s">
         <v>203</v>
@@ -21026,7 +21019,7 @@
     <row r="47" spans="1:4">
       <c r="A47" s="959"/>
       <c r="B47" s="958" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C47" s="958" t="s">
         <v>204</v>
@@ -21038,7 +21031,7 @@
     <row r="48" spans="1:4">
       <c r="A48" s="959"/>
       <c r="B48" s="958" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C48" s="958" t="s">
         <v>205</v>
@@ -21069,7 +21062,7 @@
     <row r="52" spans="1:4">
       <c r="A52" s="959"/>
       <c r="B52" s="960" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C52" s="959"/>
       <c r="D52" s="959"/>
@@ -21077,19 +21070,19 @@
     <row r="53" spans="1:4">
       <c r="A53" s="959"/>
       <c r="B53" s="961" t="s">
+        <v>614</v>
+      </c>
+      <c r="C53" s="962" t="s">
+        <v>615</v>
+      </c>
+      <c r="D53" s="961" t="s">
         <v>616</v>
-      </c>
-      <c r="C53" s="962" t="s">
-        <v>617</v>
-      </c>
-      <c r="D53" s="961" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="959"/>
       <c r="B54" s="958" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C54" s="958" t="s">
         <v>194</v>
@@ -21099,7 +21092,7 @@
     <row r="55" spans="1:4">
       <c r="A55" s="959"/>
       <c r="B55" s="958" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C55" s="958" t="s">
         <v>196</v>
@@ -21109,7 +21102,7 @@
     <row r="56" spans="1:4">
       <c r="A56" s="959"/>
       <c r="B56" s="958" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C56" s="958" t="s">
         <v>197</v>
@@ -21119,7 +21112,7 @@
     <row r="57" spans="1:4">
       <c r="A57" s="959"/>
       <c r="B57" s="958" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C57" s="958" t="s">
         <v>198</v>
@@ -21129,7 +21122,7 @@
     <row r="58" spans="1:4">
       <c r="A58" s="959"/>
       <c r="B58" s="958" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C58" s="958" t="s">
         <v>199</v>
@@ -21141,7 +21134,7 @@
     <row r="59" spans="1:4">
       <c r="A59" s="959"/>
       <c r="B59" s="958" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C59" s="958" t="s">
         <v>200</v>
@@ -21153,7 +21146,7 @@
     <row r="60" spans="1:4">
       <c r="A60" s="959"/>
       <c r="B60" s="958" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C60" s="958" t="s">
         <v>201</v>
@@ -21165,7 +21158,7 @@
     <row r="61" spans="1:4">
       <c r="A61" s="959"/>
       <c r="B61" s="958" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C61" s="958" t="s">
         <v>202</v>
@@ -21177,7 +21170,7 @@
     <row r="62" spans="1:4">
       <c r="A62" s="959"/>
       <c r="B62" s="958" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C62" s="958" t="s">
         <v>203</v>
@@ -21189,7 +21182,7 @@
     <row r="63" spans="1:4">
       <c r="A63" s="959"/>
       <c r="B63" s="958" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C63" s="958" t="s">
         <v>204</v>
@@ -21201,7 +21194,7 @@
     <row r="64" spans="1:4">
       <c r="A64" s="959"/>
       <c r="B64" s="958" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C64" s="958" t="s">
         <v>205</v>
